--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B35152-28E3-48F1-92AF-650AAB5A76A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A79A8A-7DF9-4DDD-A240-6E3E75AC93AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1545" windowWidth="20745" windowHeight="13995" xr2:uid="{5D9A434D-E4E6-481F-B630-FF215E7C1E01}"/>
+    <workbookView xWindow="1005" yWindow="405" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{5D9A434D-E4E6-481F-B630-FF215E7C1E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>ORCL</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>FCF Margin</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -603,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD2C872-FB29-47C6-A311-C860325B0B19}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -675,7 +678,7 @@
       </c>
       <c r="D8">
         <f>E7/Sheet2!E22</f>
-        <v>27.602086236466601</v>
+        <v>34.034467018824976</v>
       </c>
     </row>
   </sheetData>
@@ -685,13 +688,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E3A9F4-2AF1-472B-8827-371B927576BB}">
-  <dimension ref="A1:CT41"/>
+  <dimension ref="A1:CT42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,6 +749,26 @@
       <c r="D2" s="2">
         <v>39383</v>
       </c>
+      <c r="E2" s="2">
+        <f>D2*1.2</f>
+        <v>47259.6</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:I2" si="1">E2*1.2</f>
+        <v>56711.519999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="1"/>
+        <v>68053.823999999993</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" si="1"/>
+        <v>81664.588799999983</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" si="1"/>
+        <v>97997.50655999998</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -760,6 +783,26 @@
       <c r="D3" s="2">
         <v>5081</v>
       </c>
+      <c r="E3" s="2">
+        <f>D3*1.03</f>
+        <v>5233.43</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:I3" si="2">E3*1.03</f>
+        <v>5390.4329000000007</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="2"/>
+        <v>5552.1458870000006</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="2"/>
+        <v>5718.7102636100008</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="2"/>
+        <v>5890.2715715183012</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -774,6 +817,26 @@
       <c r="D4" s="2">
         <v>3066</v>
       </c>
+      <c r="E4" s="2">
+        <f>D4*1.03</f>
+        <v>3157.98</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:I4" si="3">E4*1.03</f>
+        <v>3252.7194</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>3350.3009820000002</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
+        <v>3450.8100114600002</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>3554.3343118038001</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -788,6 +851,26 @@
       <c r="D5" s="2">
         <v>5431</v>
       </c>
+      <c r="E5" s="2">
+        <f>D5*1.1</f>
+        <v>5974.1</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:I5" si="4">E5*1.1</f>
+        <v>6571.5100000000011</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="4"/>
+        <v>7228.6610000000019</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="4"/>
+        <v>7951.527100000003</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="4"/>
+        <v>8746.6798100000033</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -798,32 +881,32 @@
         <v>42440</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:D6" si="1">SUM(C2:C5)</f>
+        <f t="shared" ref="C6:D6" si="5">SUM(C2:C5)</f>
         <v>49954</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>52961</v>
       </c>
       <c r="E6" s="4">
-        <f>D6*1.15</f>
-        <v>60905.149999999994</v>
+        <f>SUM(E2:E5)</f>
+        <v>61625.11</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:I6" si="2">E6*1.15</f>
-        <v>70040.922499999986</v>
+        <f>SUM(F2:F5)</f>
+        <v>71926.1823</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="2"/>
-        <v>80547.060874999981</v>
+        <f t="shared" ref="G6:I6" si="6">SUM(G2:G5)</f>
+        <v>84184.931869000007</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
-        <v>92629.12000624997</v>
+        <f t="shared" si="6"/>
+        <v>98785.636175069987</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>106523.48800718745</v>
+        <f t="shared" si="6"/>
+        <v>116188.79225332208</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -877,32 +960,32 @@
         <v>8877</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:D10" si="3">SUM(C7:C9)</f>
+        <f t="shared" ref="C10:D10" si="7">SUM(C7:C9)</f>
         <v>13564</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15143</v>
       </c>
       <c r="E10" s="2">
         <f>E6*(1-E27)</f>
-        <v>12790.081499999997</v>
+        <v>17180.258239651823</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10:I10" si="4">F6*(1-F27)</f>
-        <v>14155.270437249994</v>
+        <f t="shared" ref="F10:I10" si="8">F6*(1-F27)</f>
+        <v>19533.318496407734</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="4"/>
-        <v>15635.876004115871</v>
+        <f t="shared" si="8"/>
+        <v>22249.258043802645</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="4"/>
-        <v>17234.778778718082</v>
+        <f t="shared" si="8"/>
+        <v>25381.306528794856</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="4"/>
-        <v>18952.960671409179</v>
+        <f t="shared" si="8"/>
+        <v>28989.394189244329</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -914,32 +997,32 @@
         <v>33563</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:D11" si="5">C6-C10</f>
+        <f t="shared" ref="C11:D11" si="9">C6-C10</f>
         <v>36390</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>37818</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11" si="6">E6-E10</f>
-        <v>48115.068499999994</v>
+        <f t="shared" ref="E11" si="10">E6-E10</f>
+        <v>44444.851760348174</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ref="F11" si="7">F6-F10</f>
-        <v>55885.652062749992</v>
+        <f t="shared" ref="F11" si="11">F6-F10</f>
+        <v>52392.863803592263</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11" si="8">G6-G10</f>
-        <v>64911.184870884113</v>
+        <f t="shared" ref="G11" si="12">G6-G10</f>
+        <v>61935.673825197358</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11" si="9">H6-H10</f>
-        <v>75394.341227531884</v>
+        <f t="shared" ref="H11" si="13">H6-H10</f>
+        <v>73404.329646275131</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11" si="10">I6-I10</f>
-        <v>87570.527335778272</v>
+        <f t="shared" ref="I11" si="14">I6-I10</f>
+        <v>87199.398064077759</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1005,32 +1088,32 @@
         <v>16583</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:D15" si="11">SUM(C12:C14)</f>
+        <f t="shared" ref="C15:D15" si="15">SUM(C12:C14)</f>
         <v>19035</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18737</v>
       </c>
       <c r="E15" s="2">
         <f>D15*(1+E24)</f>
-        <v>21547.55</v>
+        <v>21802.263667038009</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ref="F15:I15" si="12">E15*(1+F24)</f>
-        <v>24779.682499999999</v>
+        <f t="shared" ref="F15:I15" si="16">E15*(1+F24)</f>
+        <v>25446.665994884912</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="12"/>
-        <v>28496.634874999996</v>
+        <f t="shared" si="16"/>
+        <v>29783.672295263554</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="12"/>
-        <v>32771.130106249992</v>
+        <f t="shared" si="16"/>
+        <v>34949.235569802047</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="12"/>
-        <v>37686.799622187486</v>
+        <f t="shared" si="16"/>
+        <v>41106.274436859123</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>38</v>
@@ -1048,39 +1131,39 @@
         <v>16980</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:I16" si="13">C11-C15</f>
+        <f t="shared" ref="C16:I16" si="17">C11-C15</f>
         <v>17355</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>19081</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="13"/>
-        <v>26567.518499999995</v>
+        <f t="shared" si="17"/>
+        <v>22642.588093310165</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="13"/>
-        <v>31105.969562749993</v>
+        <f t="shared" si="17"/>
+        <v>26946.197808707351</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="13"/>
-        <v>36414.549995884117</v>
+        <f t="shared" si="17"/>
+        <v>32152.001529933805</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="13"/>
-        <v>42623.211121281893</v>
+        <f t="shared" si="17"/>
+        <v>38455.094076473084</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="13"/>
-        <v>49883.727713590786</v>
+        <f t="shared" si="17"/>
+        <v>46093.123627218636</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="2">
-        <f>NPV(L15,E33:XFD33)</f>
-        <v>512261.86622491351</v>
+        <f>NPV(L15,E34:XFD34)</f>
+        <v>378388.96332399314</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1097,31 +1180,31 @@
         <v>-3514</v>
       </c>
       <c r="E17" s="2">
-        <f>D37*$L$13</f>
+        <f>D38*$L$13</f>
         <v>-5800.26</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:I17" si="14">E37*$L$13</f>
-        <v>-4790.9712368999999</v>
+        <f t="shared" ref="F17:I17" si="18">E38*$L$13</f>
+        <v>-4981.7228546651259</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="14"/>
-        <v>-3512.0623182636905</v>
+        <f t="shared" si="18"/>
+        <v>-3914.2493718986734</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="14"/>
-        <v>-1913.0014171313378</v>
+        <f t="shared" si="18"/>
+        <v>-2541.8946170181662</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="14"/>
-        <v>65.514774490379054</v>
+        <f t="shared" si="18"/>
+        <v>-796.5131232886572</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L17" s="2">
         <f>L16/Sheet1!D3</f>
-        <v>182.67443666431316</v>
+        <v>134.93487466594911</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1133,39 +1216,39 @@
         <v>14225</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:I18" si="15">C16+C17</f>
+        <f t="shared" ref="C18:I18" si="19">C16+C17</f>
         <v>13850</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>15567</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="15"/>
-        <v>20767.258499999996</v>
+        <f t="shared" si="19"/>
+        <v>16842.328093310163</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="15"/>
-        <v>26314.998325849992</v>
+        <f t="shared" si="19"/>
+        <v>21964.474954042227</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="15"/>
-        <v>32902.487677620426</v>
+        <f t="shared" si="19"/>
+        <v>28237.752158035131</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="15"/>
-        <v>40710.209704150555</v>
+        <f t="shared" si="19"/>
+        <v>35913.199459454918</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="15"/>
-        <v>49949.242488081167</v>
+        <f t="shared" si="19"/>
+        <v>45296.61050392998</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L18" s="6">
         <f>L17/Sheet1!D2-1</f>
-        <v>0.40518797434087039</v>
+        <v>3.796057435345479E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1183,23 +1266,23 @@
       </c>
       <c r="E19" s="2">
         <f>E18*E25</f>
-        <v>3945.7791149999994</v>
+        <v>3200.0423377289312</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ref="F19:I19" si="16">F18*F25</f>
-        <v>4999.8496819114989</v>
+        <f t="shared" ref="F19:I19" si="20">F18*F25</f>
+        <v>4173.2502412680233</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="16"/>
-        <v>6251.4726587478808</v>
+        <f t="shared" si="20"/>
+        <v>5365.1729100266748</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="16"/>
-        <v>7734.9398437886057</v>
+        <f t="shared" si="20"/>
+        <v>6823.5078972964347</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="16"/>
-        <v>9490.3560727354215</v>
+        <f t="shared" si="20"/>
+        <v>8606.3559957466969</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1211,32 +1294,32 @@
         <v>13293</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ref="C20:I20" si="17">C18-C19</f>
+        <f t="shared" ref="C20:I20" si="21">C18-C19</f>
         <v>13227</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14293</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="17"/>
-        <v>16821.479384999999</v>
+        <f t="shared" si="21"/>
+        <v>13642.285755581232</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="17"/>
-        <v>21315.148643938493</v>
+        <f t="shared" si="21"/>
+        <v>17791.224712774205</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="17"/>
-        <v>26651.015018872546</v>
+        <f t="shared" si="21"/>
+        <v>22872.579248008456</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="17"/>
-        <v>32975.26986036195</v>
+        <f t="shared" si="21"/>
+        <v>29089.691562158485</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="17"/>
-        <v>40458.886415345747</v>
+        <f t="shared" si="21"/>
+        <v>36690.25450818328</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1277,32 +1360,32 @@
         <v>4.7713567839195976</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" ref="C22:I22" si="18">C20/C21</f>
+        <f t="shared" ref="C22:I22" si="22">C20/C21</f>
         <v>4.7819956616052064</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.0630534891958909</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="18"/>
-        <v>5.9587245430393194</v>
+        <f t="shared" si="22"/>
+        <v>4.8325489747011092</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="18"/>
-        <v>7.5505308692662041</v>
+        <f t="shared" si="22"/>
+        <v>6.3022404225200868</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="18"/>
-        <v>9.440671278382057</v>
+        <f t="shared" si="22"/>
+        <v>8.1022243173958408</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="18"/>
-        <v>11.680931583550107</v>
+        <f t="shared" si="22"/>
+        <v>10.304531194530105</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="18"/>
-        <v>14.331876165549327</v>
+        <f t="shared" si="22"/>
+        <v>12.996902057450683</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1318,24 +1401,24 @@
         <v>6.0195379749369504E-2</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" ref="E24:I24" si="19">E6/D6-1</f>
-        <v>0.14999999999999991</v>
+        <f t="shared" ref="E24:I24" si="23">E6/D6-1</f>
+        <v>0.16359415418893142</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="19"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="23"/>
+        <v>0.16715706146406872</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="19"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="23"/>
+        <v>0.17043514860651809</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="19"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="23"/>
+        <v>0.17343607676478379</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="19"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="23"/>
+        <v>0.17617091666454288</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1347,11 +1430,11 @@
         <v>6.5518453427065027E-2</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:D25" si="20">C19/C18</f>
+        <f t="shared" ref="C25:D25" si="24">C19/C18</f>
         <v>4.4981949458483751E-2</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8.1839789297873708E-2</v>
       </c>
       <c r="E25" s="6">
@@ -1379,31 +1462,32 @@
         <v>0.79083411875589071</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:D27" si="21">C11/C6</f>
+        <f t="shared" ref="C27:D27" si="25">C11/C6</f>
         <v>0.72847019257717105</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.71407261947470779</v>
       </c>
       <c r="E27" s="3">
-        <v>0.79</v>
+        <f>D27*1.01</f>
+        <v>0.72121334566945483</v>
       </c>
       <c r="F27" s="3">
-        <f>E27*1.01</f>
-        <v>0.79790000000000005</v>
+        <f t="shared" ref="F27:I27" si="26">E27*1.01</f>
+        <v>0.72842547912614941</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ref="G27:I27" si="22">F27*1.01</f>
-        <v>0.80587900000000001</v>
+        <f t="shared" si="26"/>
+        <v>0.7357097339174109</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="22"/>
-        <v>0.81393778999999999</v>
+        <f t="shared" si="26"/>
+        <v>0.74306683125658501</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="22"/>
-        <v>0.82207716789999996</v>
+        <f t="shared" si="26"/>
+        <v>0.75049749956915091</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1415,595 +1499,574 @@
         <v>0.40009425070688032</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:I28" si="23">C16/C6</f>
+        <f t="shared" ref="C28:I28" si="27">C16/C6</f>
         <v>0.34741962605597149</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.36028398255319954</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="23"/>
-        <v>0.43621136307849168</v>
+        <f t="shared" si="27"/>
+        <v>0.36742470874794647</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="23"/>
-        <v>0.44411136307849169</v>
+        <f t="shared" si="27"/>
+        <v>0.37463684220464111</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="23"/>
-        <v>0.45209036307849171</v>
+        <f t="shared" si="27"/>
+        <v>0.3819210969959026</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="23"/>
-        <v>0.46014915307849169</v>
+        <f t="shared" si="27"/>
+        <v>0.38927819433507677</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="23"/>
-        <v>0.46828853097849166</v>
+        <f t="shared" si="27"/>
+        <v>0.39670886264764266</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6">
+        <f>B34/B6</f>
+        <v>0.11847313854853911</v>
+      </c>
+      <c r="C29" s="6">
+        <f>C34/C6</f>
+        <v>0.16955599151219122</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D34/D6</f>
+        <v>0.22293763335284456</v>
+      </c>
+      <c r="E29" s="6">
+        <f>E34/E6</f>
+        <v>0.22998923736334287</v>
+      </c>
+      <c r="F29" s="6">
+        <f>F34/F6</f>
+        <v>0.23718187345405112</v>
+      </c>
+      <c r="G29" s="6">
+        <f>G34/G6</f>
+        <v>0.24451836226657353</v>
+      </c>
+      <c r="H29" s="6">
+        <f>H34/H6</f>
+        <v>0.25200158085534635</v>
+      </c>
+      <c r="I29" s="6">
+        <f>I34/I6</f>
+        <v>0.25963446381589478</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
-        <f>B31/B6</f>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <f>B32/B6</f>
         <v>0.22476437323279924</v>
       </c>
-      <c r="C30" s="6">
-        <f>C31/C6</f>
+      <c r="C31" s="6">
+        <f>C32/C6</f>
         <v>0.34361612683668974</v>
       </c>
-      <c r="D30" s="6">
-        <f>D31/D6</f>
+      <c r="D31" s="6">
+        <f>D32/D6</f>
         <v>0.35258020052491457</v>
       </c>
-      <c r="E30" s="6">
-        <f>D30*1.07</f>
-        <v>0.37726081456165861</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" ref="F30:I30" si="24">E30*1.07</f>
-        <v>0.40366907158097476</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="24"/>
-        <v>0.43192590659164304</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="24"/>
-        <v>0.46216072005305808</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" si="24"/>
-        <v>0.4945119704567722</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2">
-        <v>9539</v>
-      </c>
-      <c r="C31" s="2">
-        <v>17165</v>
-      </c>
-      <c r="D31" s="2">
-        <v>18673</v>
-      </c>
-      <c r="E31" s="2">
-        <f>E30*E6</f>
-        <v>22977.126499999998</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" ref="F31:I31" si="25">F30*F6</f>
-        <v>28273.35415825</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="25"/>
-        <v>34790.362291726626</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="25"/>
-        <v>42809.540799969611</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="25"/>
-        <v>52677.13995436261</v>
+      <c r="E31" s="6">
+        <f>D31*1.02</f>
+        <v>0.35963180453541288</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" ref="F31:I31" si="28">E31*1.02</f>
+        <v>0.36682444062612113</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="28"/>
+        <v>0.37416092943864354</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="28"/>
+        <v>0.38164414802741642</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="28"/>
+        <v>0.38927703098796473</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9539</v>
+      </c>
+      <c r="C32" s="2">
+        <v>17165</v>
+      </c>
+      <c r="D32" s="2">
+        <v>18673</v>
+      </c>
+      <c r="E32" s="2">
+        <f>E31*E6</f>
+        <v>22162.349513993318</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" ref="F32:I32" si="29">F31*F6</f>
+        <v>26384.281588569913</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="29"/>
+        <v>31498.712352833925</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="29"/>
+        <v>37700.959955380909</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="29"/>
+        <v>45229.628082450661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2">
         <v>4511</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>8695</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>6866</v>
       </c>
-      <c r="E32" s="2">
-        <f>E35*E31</f>
-        <v>7352.68048</v>
-      </c>
-      <c r="F32" s="2">
-        <f>F35*F31</f>
-        <v>8142.7259975760007</v>
-      </c>
-      <c r="G32" s="2">
-        <f>G35*G31</f>
-        <v>9017.6619060155426</v>
-      </c>
-      <c r="H32" s="2">
-        <f>H35*H31</f>
-        <v>9986.6096778169122</v>
-      </c>
-      <c r="I32" s="2">
-        <f>I35*I31</f>
-        <v>11059.670887698341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="E33" s="2">
+        <f>D33*(1+E24)</f>
+        <v>7989.2374626612027</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33:I33" si="30">E33*(1+F24)</f>
+        <v>9324.6949202583019</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="30"/>
+        <v>10913.95068470297</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="30"/>
+        <v>12806.823473462178</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="30"/>
+        <v>15063.013304342996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4">
-        <f>B31-B32</f>
+      <c r="B34" s="4">
+        <f>B32-B33</f>
         <v>5028</v>
       </c>
-      <c r="C33" s="4">
-        <f t="shared" ref="C33:D33" si="26">C31-C32</f>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:D34" si="31">C32-C33</f>
         <v>8470</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="26"/>
+      <c r="D34" s="4">
+        <f t="shared" si="31"/>
         <v>11807</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" ref="E33" si="27">E31-E32</f>
-        <v>15624.446019999999</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" ref="F33" si="28">F31-F32</f>
-        <v>20130.628160674001</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" ref="G33" si="29">G31-G32</f>
-        <v>25772.700385711083</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" ref="H33" si="30">H31-H32</f>
-        <v>32822.931122152702</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" ref="I33" si="31">I31-I32</f>
-        <v>41617.469066664271</v>
-      </c>
-      <c r="J33" s="4">
-        <f>I33*(1+$L$14)</f>
-        <v>42033.643757330916</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" ref="K33:BV33" si="32">J33*(1+$L$14)</f>
-        <v>42453.980194904223</v>
-      </c>
-      <c r="L33" s="4">
-        <f t="shared" si="32"/>
-        <v>42878.519996853269</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" si="32"/>
-        <v>43307.305196821799</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" si="32"/>
-        <v>43740.378248790017</v>
-      </c>
-      <c r="O33" s="4">
-        <f t="shared" si="32"/>
-        <v>44177.782031277915</v>
-      </c>
-      <c r="P33" s="4">
-        <f t="shared" si="32"/>
-        <v>44619.559851590697</v>
-      </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="32"/>
-        <v>45065.755450106604</v>
-      </c>
-      <c r="R33" s="4">
-        <f t="shared" si="32"/>
-        <v>45516.413004607668</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="32"/>
-        <v>45971.577134653744</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" si="32"/>
-        <v>46431.292906000279</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="32"/>
-        <v>46895.605835060283</v>
-      </c>
-      <c r="V33" s="4">
-        <f t="shared" si="32"/>
-        <v>47364.561893410886</v>
-      </c>
-      <c r="W33" s="4">
-        <f t="shared" si="32"/>
-        <v>47838.207512344998</v>
-      </c>
-      <c r="X33" s="4">
-        <f t="shared" si="32"/>
-        <v>48316.58958746845</v>
-      </c>
-      <c r="Y33" s="4">
-        <f t="shared" si="32"/>
-        <v>48799.755483343135</v>
-      </c>
-      <c r="Z33" s="4">
-        <f t="shared" si="32"/>
-        <v>49287.753038176568</v>
-      </c>
-      <c r="AA33" s="4">
-        <f t="shared" si="32"/>
-        <v>49780.630568558336</v>
-      </c>
-      <c r="AB33" s="4">
-        <f t="shared" si="32"/>
-        <v>50278.436874243918</v>
-      </c>
-      <c r="AC33" s="4">
-        <f t="shared" si="32"/>
-        <v>50781.221242986358</v>
-      </c>
-      <c r="AD33" s="4">
-        <f t="shared" si="32"/>
-        <v>51289.033455416218</v>
-      </c>
-      <c r="AE33" s="4">
-        <f t="shared" si="32"/>
-        <v>51801.92378997038</v>
-      </c>
-      <c r="AF33" s="4">
-        <f t="shared" si="32"/>
-        <v>52319.943027870082</v>
-      </c>
-      <c r="AG33" s="4">
-        <f t="shared" si="32"/>
-        <v>52843.142458148781</v>
-      </c>
-      <c r="AH33" s="4">
-        <f t="shared" si="32"/>
-        <v>53371.57388273027</v>
-      </c>
-      <c r="AI33" s="4">
-        <f t="shared" si="32"/>
-        <v>53905.289621557575</v>
-      </c>
-      <c r="AJ33" s="4">
-        <f t="shared" si="32"/>
-        <v>54444.342517773148</v>
-      </c>
-      <c r="AK33" s="4">
-        <f t="shared" si="32"/>
-        <v>54988.785942950883</v>
-      </c>
-      <c r="AL33" s="4">
-        <f t="shared" si="32"/>
-        <v>55538.673802380392</v>
-      </c>
-      <c r="AM33" s="4">
-        <f t="shared" si="32"/>
-        <v>56094.0605404042</v>
-      </c>
-      <c r="AN33" s="4">
-        <f t="shared" si="32"/>
-        <v>56655.001145808244</v>
-      </c>
-      <c r="AO33" s="4">
-        <f t="shared" si="32"/>
-        <v>57221.551157266331</v>
-      </c>
-      <c r="AP33" s="4">
-        <f t="shared" si="32"/>
-        <v>57793.766668838995</v>
-      </c>
-      <c r="AQ33" s="4">
-        <f t="shared" si="32"/>
-        <v>58371.704335527385</v>
-      </c>
-      <c r="AR33" s="4">
-        <f t="shared" si="32"/>
-        <v>58955.42137888266</v>
-      </c>
-      <c r="AS33" s="4">
-        <f t="shared" si="32"/>
-        <v>59544.975592671486</v>
-      </c>
-      <c r="AT33" s="4">
-        <f t="shared" si="32"/>
-        <v>60140.425348598204</v>
-      </c>
-      <c r="AU33" s="4">
-        <f t="shared" si="32"/>
-        <v>60741.829602084188</v>
-      </c>
-      <c r="AV33" s="4">
-        <f t="shared" si="32"/>
-        <v>61349.24789810503</v>
-      </c>
-      <c r="AW33" s="4">
-        <f t="shared" si="32"/>
-        <v>61962.740377086084</v>
-      </c>
-      <c r="AX33" s="4">
-        <f t="shared" si="32"/>
-        <v>62582.367780856948</v>
-      </c>
-      <c r="AY33" s="4">
-        <f t="shared" si="32"/>
-        <v>63208.191458665518</v>
-      </c>
-      <c r="AZ33" s="4">
-        <f t="shared" si="32"/>
-        <v>63840.273373252174</v>
-      </c>
-      <c r="BA33" s="4">
-        <f t="shared" si="32"/>
-        <v>64478.676106984698</v>
-      </c>
-      <c r="BB33" s="4">
-        <f t="shared" si="32"/>
-        <v>65123.462868054543</v>
-      </c>
-      <c r="BC33" s="4">
-        <f t="shared" si="32"/>
-        <v>65774.697496735083</v>
-      </c>
-      <c r="BD33" s="4">
-        <f t="shared" si="32"/>
-        <v>66432.444471702431</v>
-      </c>
-      <c r="BE33" s="4">
-        <f t="shared" si="32"/>
-        <v>67096.76891641946</v>
-      </c>
-      <c r="BF33" s="4">
-        <f t="shared" si="32"/>
-        <v>67767.736605583661</v>
-      </c>
-      <c r="BG33" s="4">
-        <f t="shared" si="32"/>
-        <v>68445.4139716395</v>
-      </c>
-      <c r="BH33" s="4">
-        <f t="shared" si="32"/>
-        <v>69129.8681113559</v>
-      </c>
-      <c r="BI33" s="4">
-        <f t="shared" si="32"/>
-        <v>69821.166792469463</v>
-      </c>
-      <c r="BJ33" s="4">
-        <f t="shared" si="32"/>
-        <v>70519.37846039416</v>
-      </c>
-      <c r="BK33" s="4">
-        <f t="shared" si="32"/>
-        <v>71224.572244998097</v>
-      </c>
-      <c r="BL33" s="4">
-        <f t="shared" si="32"/>
-        <v>71936.817967448078</v>
-      </c>
-      <c r="BM33" s="4">
-        <f t="shared" si="32"/>
-        <v>72656.186147122557</v>
-      </c>
-      <c r="BN33" s="4">
-        <f t="shared" si="32"/>
-        <v>73382.748008593786</v>
-      </c>
-      <c r="BO33" s="4">
-        <f t="shared" si="32"/>
-        <v>74116.575488679722</v>
-      </c>
-      <c r="BP33" s="4">
-        <f t="shared" si="32"/>
-        <v>74857.741243566517</v>
-      </c>
-      <c r="BQ33" s="4">
-        <f t="shared" si="32"/>
-        <v>75606.318656002186</v>
-      </c>
-      <c r="BR33" s="4">
-        <f t="shared" si="32"/>
-        <v>76362.381842562201</v>
-      </c>
-      <c r="BS33" s="4">
-        <f t="shared" si="32"/>
-        <v>77126.005660987823</v>
-      </c>
-      <c r="BT33" s="4">
-        <f t="shared" si="32"/>
-        <v>77897.265717597707</v>
-      </c>
-      <c r="BU33" s="4">
-        <f t="shared" si="32"/>
-        <v>78676.238374773689</v>
-      </c>
-      <c r="BV33" s="4">
-        <f t="shared" si="32"/>
-        <v>79463.000758521433</v>
-      </c>
-      <c r="BW33" s="4">
-        <f t="shared" ref="BW33:CT33" si="33">BV33*(1+$L$14)</f>
-        <v>80257.630766106653</v>
-      </c>
-      <c r="BX33" s="4">
-        <f t="shared" si="33"/>
-        <v>81060.207073767713</v>
-      </c>
-      <c r="BY33" s="4">
-        <f t="shared" si="33"/>
-        <v>81870.809144505387</v>
-      </c>
-      <c r="BZ33" s="4">
-        <f t="shared" si="33"/>
-        <v>82689.517235950436</v>
-      </c>
-      <c r="CA33" s="4">
-        <f t="shared" si="33"/>
-        <v>83516.412408309945</v>
-      </c>
-      <c r="CB33" s="4">
-        <f t="shared" si="33"/>
-        <v>84351.576532393039</v>
-      </c>
-      <c r="CC33" s="4">
-        <f t="shared" si="33"/>
-        <v>85195.092297716968</v>
-      </c>
-      <c r="CD33" s="4">
-        <f t="shared" si="33"/>
-        <v>86047.043220694133</v>
-      </c>
-      <c r="CE33" s="4">
-        <f t="shared" si="33"/>
-        <v>86907.513652901078</v>
-      </c>
-      <c r="CF33" s="4">
-        <f t="shared" si="33"/>
-        <v>87776.588789430083</v>
-      </c>
-      <c r="CG33" s="4">
-        <f t="shared" si="33"/>
-        <v>88654.354677324387</v>
-      </c>
-      <c r="CH33" s="4">
-        <f t="shared" si="33"/>
-        <v>89540.898224097633</v>
-      </c>
-      <c r="CI33" s="4">
-        <f t="shared" si="33"/>
-        <v>90436.307206338606</v>
-      </c>
-      <c r="CJ33" s="4">
-        <f t="shared" si="33"/>
-        <v>91340.670278401987</v>
-      </c>
-      <c r="CK33" s="4">
-        <f t="shared" si="33"/>
-        <v>92254.076981186008</v>
-      </c>
-      <c r="CL33" s="4">
-        <f t="shared" si="33"/>
-        <v>93176.617750997873</v>
-      </c>
-      <c r="CM33" s="4">
-        <f t="shared" si="33"/>
-        <v>94108.383928507857</v>
-      </c>
-      <c r="CN33" s="4">
-        <f t="shared" si="33"/>
-        <v>95049.467767792943</v>
-      </c>
-      <c r="CO33" s="4">
-        <f t="shared" si="33"/>
-        <v>95999.962445470868</v>
-      </c>
-      <c r="CP33" s="4">
-        <f t="shared" si="33"/>
-        <v>96959.962069925576</v>
-      </c>
-      <c r="CQ33" s="4">
-        <f t="shared" si="33"/>
-        <v>97929.561690624832</v>
-      </c>
-      <c r="CR33" s="4">
-        <f t="shared" si="33"/>
-        <v>98908.857307531085</v>
-      </c>
-      <c r="CS33" s="4">
-        <f t="shared" si="33"/>
-        <v>99897.945880606392</v>
-      </c>
-      <c r="CT33" s="4">
-        <f t="shared" si="33"/>
-        <v>100896.92533941245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
-        <f>B33/B6</f>
-        <v>0.11847313854853911</v>
-      </c>
-      <c r="C34" s="6">
-        <f t="shared" ref="C34:D34" si="34">C33/C6</f>
-        <v>0.16955599151219122</v>
-      </c>
-      <c r="D34" s="6">
-        <f t="shared" si="34"/>
-        <v>0.22293763335284456</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" ref="E34" si="35">E33/E6</f>
-        <v>0.25653735390192783</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" ref="F34" si="36">F33/F6</f>
-        <v>0.28741237896565403</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" ref="G34" si="37">G33/G6</f>
-        <v>0.31997071160308915</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" ref="H34" si="38">H33/H6</f>
-        <v>0.35434786727908069</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" ref="I34" si="39">I33/I6</f>
-        <v>0.39068819323543197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F35" s="6">
-        <f>E35*0.9</f>
-        <v>0.28800000000000003</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" ref="G35:I35" si="40">F35*0.9</f>
-        <v>0.25920000000000004</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="40"/>
-        <v>0.23328000000000004</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" si="40"/>
-        <v>0.20995200000000006</v>
+      <c r="E34" s="4">
+        <f t="shared" ref="E34" si="32">E32-E33</f>
+        <v>14173.112051332115</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ref="F34" si="33">F32-F33</f>
+        <v>17059.586668311611</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" ref="G34" si="34">G32-G33</f>
+        <v>20584.761668130956</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" ref="H34" si="35">H32-H33</f>
+        <v>24894.136481918729</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" ref="I34" si="36">I32-I33</f>
+        <v>30166.614778107665</v>
+      </c>
+      <c r="J34" s="4">
+        <f>I34*(1+$L$14)</f>
+        <v>30468.280925888743</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" ref="K34:BV34" si="37">J34*(1+$L$14)</f>
+        <v>30772.96373514763</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="37"/>
+        <v>31080.693372499107</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="37"/>
+        <v>31391.500306224098</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="37"/>
+        <v>31705.415309286338</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="37"/>
+        <v>32022.469462379202</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="37"/>
+        <v>32342.694157002996</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="37"/>
+        <v>32666.121098573025</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="37"/>
+        <v>32992.782309558752</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="37"/>
+        <v>33322.710132654342</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="37"/>
+        <v>33655.937233980883</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="37"/>
+        <v>33992.496606320696</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" si="37"/>
+        <v>34332.421572383901</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" si="37"/>
+        <v>34675.745788107743</v>
+      </c>
+      <c r="X34" s="4">
+        <f t="shared" si="37"/>
+        <v>35022.503245988817</v>
+      </c>
+      <c r="Y34" s="4">
+        <f t="shared" si="37"/>
+        <v>35372.728278448703</v>
+      </c>
+      <c r="Z34" s="4">
+        <f t="shared" si="37"/>
+        <v>35726.45556123319</v>
+      </c>
+      <c r="AA34" s="4">
+        <f t="shared" si="37"/>
+        <v>36083.720116845521</v>
+      </c>
+      <c r="AB34" s="4">
+        <f t="shared" si="37"/>
+        <v>36444.557318013976</v>
+      </c>
+      <c r="AC34" s="4">
+        <f t="shared" si="37"/>
+        <v>36809.002891194119</v>
+      </c>
+      <c r="AD34" s="4">
+        <f t="shared" si="37"/>
+        <v>37177.092920106057</v>
+      </c>
+      <c r="AE34" s="4">
+        <f t="shared" si="37"/>
+        <v>37548.863849307119</v>
+      </c>
+      <c r="AF34" s="4">
+        <f t="shared" si="37"/>
+        <v>37924.352487800192</v>
+      </c>
+      <c r="AG34" s="4">
+        <f t="shared" si="37"/>
+        <v>38303.596012678194</v>
+      </c>
+      <c r="AH34" s="4">
+        <f t="shared" si="37"/>
+        <v>38686.631972804978</v>
+      </c>
+      <c r="AI34" s="4">
+        <f t="shared" si="37"/>
+        <v>39073.498292533026</v>
+      </c>
+      <c r="AJ34" s="4">
+        <f t="shared" si="37"/>
+        <v>39464.233275458355</v>
+      </c>
+      <c r="AK34" s="4">
+        <f t="shared" si="37"/>
+        <v>39858.87560821294</v>
+      </c>
+      <c r="AL34" s="4">
+        <f t="shared" si="37"/>
+        <v>40257.464364295069</v>
+      </c>
+      <c r="AM34" s="4">
+        <f t="shared" si="37"/>
+        <v>40660.039007938023</v>
+      </c>
+      <c r="AN34" s="4">
+        <f t="shared" si="37"/>
+        <v>41066.639398017403</v>
+      </c>
+      <c r="AO34" s="4">
+        <f t="shared" si="37"/>
+        <v>41477.305791997576</v>
+      </c>
+      <c r="AP34" s="4">
+        <f t="shared" si="37"/>
+        <v>41892.078849917554</v>
+      </c>
+      <c r="AQ34" s="4">
+        <f t="shared" si="37"/>
+        <v>42310.999638416732</v>
+      </c>
+      <c r="AR34" s="4">
+        <f t="shared" si="37"/>
+        <v>42734.109634800901</v>
+      </c>
+      <c r="AS34" s="4">
+        <f t="shared" si="37"/>
+        <v>43161.450731148914</v>
+      </c>
+      <c r="AT34" s="4">
+        <f t="shared" si="37"/>
+        <v>43593.065238460404</v>
+      </c>
+      <c r="AU34" s="4">
+        <f t="shared" si="37"/>
+        <v>44028.995890845006</v>
+      </c>
+      <c r="AV34" s="4">
+        <f t="shared" si="37"/>
+        <v>44469.285849753454</v>
+      </c>
+      <c r="AW34" s="4">
+        <f t="shared" si="37"/>
+        <v>44913.978708250987</v>
+      </c>
+      <c r="AX34" s="4">
+        <f t="shared" si="37"/>
+        <v>45363.118495333496</v>
+      </c>
+      <c r="AY34" s="4">
+        <f t="shared" si="37"/>
+        <v>45816.749680286834</v>
+      </c>
+      <c r="AZ34" s="4">
+        <f t="shared" si="37"/>
+        <v>46274.917177089701</v>
+      </c>
+      <c r="BA34" s="4">
+        <f t="shared" si="37"/>
+        <v>46737.666348860599</v>
+      </c>
+      <c r="BB34" s="4">
+        <f t="shared" si="37"/>
+        <v>47205.043012349204</v>
+      </c>
+      <c r="BC34" s="4">
+        <f t="shared" si="37"/>
+        <v>47677.093442472695</v>
+      </c>
+      <c r="BD34" s="4">
+        <f t="shared" si="37"/>
+        <v>48153.864376897422</v>
+      </c>
+      <c r="BE34" s="4">
+        <f t="shared" si="37"/>
+        <v>48635.403020666396</v>
+      </c>
+      <c r="BF34" s="4">
+        <f t="shared" si="37"/>
+        <v>49121.757050873057</v>
+      </c>
+      <c r="BG34" s="4">
+        <f t="shared" si="37"/>
+        <v>49612.974621381785</v>
+      </c>
+      <c r="BH34" s="4">
+        <f t="shared" si="37"/>
+        <v>50109.104367595603</v>
+      </c>
+      <c r="BI34" s="4">
+        <f t="shared" si="37"/>
+        <v>50610.195411271561</v>
+      </c>
+      <c r="BJ34" s="4">
+        <f t="shared" si="37"/>
+        <v>51116.297365384278</v>
+      </c>
+      <c r="BK34" s="4">
+        <f t="shared" si="37"/>
+        <v>51627.460339038123</v>
+      </c>
+      <c r="BL34" s="4">
+        <f t="shared" si="37"/>
+        <v>52143.734942428506</v>
+      </c>
+      <c r="BM34" s="4">
+        <f t="shared" si="37"/>
+        <v>52665.172291852788</v>
+      </c>
+      <c r="BN34" s="4">
+        <f t="shared" si="37"/>
+        <v>53191.824014771315</v>
+      </c>
+      <c r="BO34" s="4">
+        <f t="shared" si="37"/>
+        <v>53723.742254919031</v>
+      </c>
+      <c r="BP34" s="4">
+        <f t="shared" si="37"/>
+        <v>54260.979677468218</v>
+      </c>
+      <c r="BQ34" s="4">
+        <f t="shared" si="37"/>
+        <v>54803.589474242901</v>
+      </c>
+      <c r="BR34" s="4">
+        <f t="shared" si="37"/>
+        <v>55351.625368985333</v>
+      </c>
+      <c r="BS34" s="4">
+        <f t="shared" si="37"/>
+        <v>55905.14162267519</v>
+      </c>
+      <c r="BT34" s="4">
+        <f t="shared" si="37"/>
+        <v>56464.19303890194</v>
+      </c>
+      <c r="BU34" s="4">
+        <f t="shared" si="37"/>
+        <v>57028.834969290961</v>
+      </c>
+      <c r="BV34" s="4">
+        <f t="shared" si="37"/>
+        <v>57599.123318983875</v>
+      </c>
+      <c r="BW34" s="4">
+        <f t="shared" ref="BW34:CT34" si="38">BV34*(1+$L$14)</f>
+        <v>58175.114552173713</v>
+      </c>
+      <c r="BX34" s="4">
+        <f t="shared" si="38"/>
+        <v>58756.865697695452</v>
+      </c>
+      <c r="BY34" s="4">
+        <f t="shared" si="38"/>
+        <v>59344.434354672405</v>
+      </c>
+      <c r="BZ34" s="4">
+        <f t="shared" si="38"/>
+        <v>59937.87869821913</v>
+      </c>
+      <c r="CA34" s="4">
+        <f t="shared" si="38"/>
+        <v>60537.25748520132</v>
+      </c>
+      <c r="CB34" s="4">
+        <f t="shared" si="38"/>
+        <v>61142.630060053336</v>
+      </c>
+      <c r="CC34" s="4">
+        <f t="shared" si="38"/>
+        <v>61754.056360653871</v>
+      </c>
+      <c r="CD34" s="4">
+        <f t="shared" si="38"/>
+        <v>62371.596924260411</v>
+      </c>
+      <c r="CE34" s="4">
+        <f t="shared" si="38"/>
+        <v>62995.312893503018</v>
+      </c>
+      <c r="CF34" s="4">
+        <f t="shared" si="38"/>
+        <v>63625.266022438052</v>
+      </c>
+      <c r="CG34" s="4">
+        <f t="shared" si="38"/>
+        <v>64261.518682662434</v>
+      </c>
+      <c r="CH34" s="4">
+        <f t="shared" si="38"/>
+        <v>64904.133869489058</v>
+      </c>
+      <c r="CI34" s="4">
+        <f t="shared" si="38"/>
+        <v>65553.175208183951</v>
+      </c>
+      <c r="CJ34" s="4">
+        <f t="shared" si="38"/>
+        <v>66208.706960265787</v>
+      </c>
+      <c r="CK34" s="4">
+        <f t="shared" si="38"/>
+        <v>66870.794029868441</v>
+      </c>
+      <c r="CL34" s="4">
+        <f t="shared" si="38"/>
+        <v>67539.501970167126</v>
+      </c>
+      <c r="CM34" s="4">
+        <f t="shared" si="38"/>
+        <v>68214.896989868794</v>
+      </c>
+      <c r="CN34" s="4">
+        <f t="shared" si="38"/>
+        <v>68897.045959767478</v>
+      </c>
+      <c r="CO34" s="4">
+        <f t="shared" si="38"/>
+        <v>69586.016419365158</v>
+      </c>
+      <c r="CP34" s="4">
+        <f t="shared" si="38"/>
+        <v>70281.876583558813</v>
+      </c>
+      <c r="CQ34" s="4">
+        <f t="shared" si="38"/>
+        <v>70984.695349394402</v>
+      </c>
+      <c r="CR34" s="4">
+        <f t="shared" si="38"/>
+        <v>71694.542302888352</v>
+      </c>
+      <c r="CS34" s="4">
+        <f t="shared" si="38"/>
+        <v>72411.487725917235</v>
+      </c>
+      <c r="CT34" s="4">
+        <f t="shared" si="38"/>
+        <v>73135.602603176405</v>
       </c>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.25">
@@ -2017,53 +2080,63 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="2">
-        <f>D39-D41</f>
+      <c r="D38" s="2">
+        <f>D40-D42</f>
         <v>-96671</v>
       </c>
-      <c r="E37" s="2">
-        <f>D37+E20</f>
-        <v>-79849.520615000001</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" ref="F37:I37" si="41">E37+F20</f>
-        <v>-58534.371971061511</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="41"/>
-        <v>-31883.356952188966</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="41"/>
-        <v>1091.9129081729843</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="41"/>
-        <v>41550.799323518731</v>
-      </c>
-    </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="E38" s="2">
+        <f>D38+E20</f>
+        <v>-83028.714244418763</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ref="F38:I38" si="39">E38+F20</f>
+        <v>-65237.489531644562</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="39"/>
+        <v>-42364.910283636105</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="39"/>
+        <v>-13275.21872147762</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="39"/>
+        <v>23415.035786705659</v>
+      </c>
     </row>
     <row r="39" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="2">
         <f>17406+417</f>
         <v>17823</v>
       </c>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>114494</v>
       </c>
     </row>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666DF596-493B-43C2-BAC0-A9E8AD84BB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15878AA9-9657-44FC-92E3-6F4A1C0FF1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="285" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{5D9A434D-E4E6-481F-B630-FF215E7C1E01}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{5D9A434D-E4E6-481F-B630-FF215E7C1E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Price</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">Revenue Growth </t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
   </si>
   <si>
     <t>Gross Margin</t>
@@ -268,7 +265,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -628,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD2C872-FB29-47C6-A311-C860325B0B19}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -639,72 +636,72 @@
     <col min="1" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O2" s="8" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="8" t="s">
+      <c r="E2" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="1">
+      <c r="E3" s="1">
         <v>2804.2339999999999</v>
       </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O4" s="8" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="1">
-        <f>P3*P2</f>
-        <v>591693.37399999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O5" s="8" t="s">
+      <c r="E4" s="1">
+        <f>E3*E2</f>
+        <v>701058.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="E5" s="1">
         <f>17406+417</f>
         <v>17823</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O6" s="8" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="1">
+      <c r="E6" s="1">
         <v>114494</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O7" s="8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="1">
-        <f>P4+P6-P5</f>
-        <v>688364.37399999995</v>
-      </c>
-      <c r="Q7" s="8">
-        <f>P7/P3</f>
-        <v>245.47322869632134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="8">
-        <f>Q7/Model!F23</f>
-        <v>41.113077675420939</v>
+      <c r="E7" s="1">
+        <f>E4+E6-E5</f>
+        <v>797729.5</v>
+      </c>
+      <c r="F7" s="8">
+        <f>E7/E3</f>
+        <v>284.47322869632137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8">
+        <f>F7/Model!F23</f>
+        <v>44.348415770278379</v>
       </c>
     </row>
   </sheetData>
@@ -714,13 +711,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E3A9F4-2AF1-472B-8827-371B927576BB}">
-  <dimension ref="A1:DD43"/>
+  <dimension ref="A1:DD42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -730,12 +727,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="2">
         <v>2022</v>
       </c>
@@ -744,7 +741,7 @@
         <v>2023</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:J2" si="0">D2+1</f>
+        <f t="shared" ref="E2:K2" si="0">D2+1</f>
         <v>2024</v>
       </c>
       <c r="F2" s="2">
@@ -767,8 +764,12 @@
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,27 +783,31 @@
         <v>39383</v>
       </c>
       <c r="F3" s="1">
-        <f>E3*1.2</f>
-        <v>47259.6</v>
+        <f>E3*1.3</f>
+        <v>51197.9</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:J3" si="1">F3*1.2</f>
-        <v>56711.519999999997</v>
+        <f t="shared" ref="G3:K3" si="1">F3*1.3</f>
+        <v>66557.27</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="1"/>
-        <v>68053.823999999993</v>
+        <v>86524.451000000015</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>81664.588799999983</v>
+        <v>112481.78630000002</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="1"/>
-        <v>97997.50655999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>146226.32219000004</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="1"/>
+        <v>190094.21884700004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,7 +825,7 @@
         <v>5233.43</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:J4" si="2">F4*1.03</f>
+        <f t="shared" ref="G4:K4" si="2">F4*1.03</f>
         <v>5390.4329000000007</v>
       </c>
       <c r="H4" s="1">
@@ -835,8 +840,12 @@
         <f t="shared" si="2"/>
         <v>5890.2715715183012</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>6066.9797186638507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,7 +863,7 @@
         <v>3157.98</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:J5" si="3">F5*1.03</f>
+        <f t="shared" ref="G5:K5" si="3">F5*1.03</f>
         <v>3252.7194</v>
       </c>
       <c r="H5" s="1">
@@ -869,8 +878,12 @@
         <f t="shared" si="3"/>
         <v>3554.3343118038001</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>3660.9643411579141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,27 +897,31 @@
         <v>5431</v>
       </c>
       <c r="F6" s="1">
-        <f>E6*1.15</f>
-        <v>6245.65</v>
+        <f>E6*1.2</f>
+        <v>6517.2</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:J6" si="4">F6*1.15</f>
-        <v>7182.4974999999986</v>
+        <f t="shared" ref="G6:K6" si="4">F6*1.2</f>
+        <v>7820.6399999999994</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="4"/>
-        <v>8259.8721249999981</v>
+        <v>9384.7679999999982</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v>9498.8529437499965</v>
+        <v>11261.721599999997</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>10923.680885312495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>13514.065919999995</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="4"/>
+        <v>16216.879103999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -922,26 +939,30 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>61896.66</v>
+        <v>66106.510000000009</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
-        <v>72537.169800000003</v>
+        <v>83021.062300000005</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:J7" si="6">SUM(H3:H6)</f>
-        <v>85216.142993999994</v>
+        <v>104811.66586900002</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="6"/>
-        <v>100332.96201881998</v>
+        <v>132913.02817507001</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="6"/>
-        <v>118365.79332863458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>169184.99399332213</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" ref="K7" si="7">SUM(K3:K6)</f>
+        <v>216039.04201082178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -955,7 +976,7 @@
         <v>9427</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -969,7 +990,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -983,7 +1004,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -992,35 +1013,39 @@
         <v>8877</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:E11" si="7">SUM(D8:D10)</f>
+        <f t="shared" ref="D11:E11" si="8">SUM(D8:D10)</f>
         <v>13564</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15143</v>
       </c>
       <c r="F11" s="1">
-        <f>F7*(1-F28)</f>
-        <v>17255.962755635283</v>
+        <f>F7*(1-F27)</f>
+        <v>18429.612752368732</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:J11" si="8">G7*(1-G28)</f>
-        <v>19699.247133980145</v>
+        <f>G7*(1-G27)</f>
+        <v>22546.405216560601</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="8"/>
-        <v>22521.797106416219</v>
+        <f>H7*(1-H27)</f>
+        <v>27700.703061077438</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
-        <v>25778.865860908121</v>
+        <f>I7*(1-I27)</f>
+        <v>34149.765496303531</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="8"/>
-        <v>29532.561400975443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <f>J7*(1-J27)</f>
+        <v>42212.079036712057</v>
+      </c>
+      <c r="K11" s="1">
+        <f>K7*(1-K27)</f>
+        <v>52280.913564000934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1038,26 +1063,30 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ref="F12" si="10">F7-F11</f>
-        <v>44640.697244364725</v>
+        <v>47676.897247631277</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ref="G12" si="11">G7-G11</f>
-        <v>52837.922666019862</v>
+        <v>60474.657083439408</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ref="H12" si="12">H7-H11</f>
-        <v>62694.345887583775</v>
+        <v>77110.96280792258</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ref="I12" si="13">I7-I11</f>
-        <v>74554.096157911859</v>
+        <v>98763.262678766478</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12" si="14">J7-J11</f>
-        <v>88833.23192765913</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J12:K12" si="14">J7-J11</f>
+        <v>126972.91495661007</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="14"/>
+        <v>163758.12844682083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1071,7 +1100,7 @@
         <v>8274</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,14 +1113,14 @@
       <c r="E14" s="1">
         <v>8915</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1104,14 +1133,14 @@
       <c r="E15" s="1">
         <v>1548</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1129,28 +1158,32 @@
       </c>
       <c r="F16" s="1">
         <f>E16*(1+F25)</f>
-        <v>21898.334971394044</v>
+        <v>23387.732064538057</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:J16" si="16">F16*(1+G25)</f>
-        <v>25662.826429685996</v>
+        <f t="shared" ref="G16:K16" si="16">F16*(1+G25)</f>
+        <v>29371.908466892615</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="16"/>
-        <v>30148.503073555596</v>
+        <v>37081.176401266086</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="16"/>
-        <v>35496.661870935779</v>
+        <v>47023.119067168038</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="16"/>
-        <v>41876.472679870581</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="4">
+        <v>59855.728412470999</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="16"/>
+        <v>76432.158194837088</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.08</v>
       </c>
     </row>
@@ -1172,30 +1205,34 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="17"/>
-        <v>22742.36227297068</v>
+        <v>24289.165183093221</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="17"/>
-        <v>27175.096236333866</v>
+        <v>31102.748616546793</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="17"/>
-        <v>32545.842814028179</v>
+        <v>40029.786406656494</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="17"/>
-        <v>39057.43428697608</v>
+        <v>51740.14361159844</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="17"/>
-        <v>46956.759247788548</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="1">
-        <f>NPV(M16,F21:XFD21)</f>
-        <v>540197.54394606082</v>
+        <v>67117.186544139069</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ref="K17" si="18">K12-K16</f>
+        <v>87325.970251983745</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="1">
+        <f>NPV(N16,F21:XFD21)</f>
+        <v>828293.96632646746</v>
       </c>
     </row>
     <row r="18" spans="2:108" x14ac:dyDescent="0.2">
@@ -1212,31 +1249,35 @@
         <v>-3514</v>
       </c>
       <c r="F18" s="1">
-        <f>E39*$M$14</f>
+        <f>E38*$N$14</f>
         <v>-1933.42</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18:J18" si="18">F39*$M$14</f>
-        <v>-1596.3151351778752</v>
+        <f>F38*$N$14</f>
+        <v>-1571.2569280338898</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="18"/>
-        <v>-1181.9388813391481</v>
+        <f>G38*$N$14</f>
+        <v>-1092.8467626799809</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="18"/>
-        <v>-673.84363762958583</v>
+        <f>H38*$N$14</f>
+        <v>-462.06834044756141</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="18"/>
-        <v>-52.029469110172649</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="1">
-        <f>M17/Main!P3</f>
-        <v>192.63640050939429</v>
+        <f>I38*$N$14</f>
+        <v>368.63647894508273</v>
+      </c>
+      <c r="K18" s="1">
+        <f>J38*$N$14</f>
+        <v>1461.9068119190463</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="1">
+        <f>N17/Main!E3</f>
+        <v>295.37262807828</v>
       </c>
     </row>
     <row r="19" spans="2:108" x14ac:dyDescent="0.2">
@@ -1257,27 +1298,31 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="19"/>
-        <v>20808.942272970678</v>
+        <v>22355.745183093219</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="19"/>
-        <v>25578.78110115599</v>
+        <v>29531.491688512902</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="19"/>
-        <v>31363.903932689031</v>
+        <v>38936.939643976511</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="19"/>
-        <v>38383.590649346494</v>
+        <v>51278.075271150876</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="19"/>
-        <v>46904.729778678375</v>
-      </c>
-      <c r="M19" s="4">
-        <f>M18/Main!P2-1</f>
-        <v>-8.703127720666215E-2</v>
+        <v>67485.823023084158</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" ref="K19" si="20">K17+K18</f>
+        <v>88787.877063902793</v>
+      </c>
+      <c r="N19" s="4">
+        <f>N18/Main!E2-1</f>
+        <v>0.18149051231312008</v>
       </c>
     </row>
     <row r="20" spans="2:108" x14ac:dyDescent="0.2">
@@ -1294,24 +1339,28 @@
         <v>1274</v>
       </c>
       <c r="F20" s="1">
-        <f>F19*F26</f>
-        <v>3953.6990318644289</v>
+        <f>F19*0.19</f>
+        <v>4247.5915847877113</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:J20" si="20">G19*G26</f>
-        <v>4859.9684092196385</v>
+        <f t="shared" ref="G20:K20" si="21">G19*0.19</f>
+        <v>5610.9834208174516</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="20"/>
-        <v>5959.141747210916</v>
+        <f t="shared" si="21"/>
+        <v>7398.018532355537</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="20"/>
-        <v>7292.8822233758337</v>
+        <f t="shared" si="21"/>
+        <v>9742.8343015186674</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="20"/>
-        <v>8911.8986579488919</v>
+        <f t="shared" si="21"/>
+        <v>12822.306374385989</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="21"/>
+        <v>16869.696642141531</v>
       </c>
     </row>
     <row r="21" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1323,424 +1372,424 @@
         <v>13293</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:J21" si="21">D19-D20</f>
+        <f t="shared" ref="D21:J21" si="22">D19-D20</f>
         <v>13227</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14293</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="21"/>
-        <v>16855.243241106251</v>
+        <f t="shared" si="22"/>
+        <v>18108.153598305507</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="21"/>
-        <v>20718.812691936349</v>
+        <f t="shared" si="22"/>
+        <v>23920.508267695452</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="21"/>
-        <v>25404.762185478114</v>
+        <f t="shared" si="22"/>
+        <v>31538.921111620974</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="21"/>
-        <v>31090.708425970661</v>
+        <f t="shared" si="22"/>
+        <v>41535.240969632207</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="21"/>
-        <v>37992.831120729483</v>
+        <f t="shared" si="22"/>
+        <v>54663.516648698169</v>
       </c>
       <c r="K21" s="3">
-        <f>J21*(1+$M$15)</f>
-        <v>38752.687743144073</v>
+        <f t="shared" ref="K21" si="23">K19-K20</f>
+        <v>71918.180421761266</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" ref="L21:BW21" si="22">K21*(1+$M$15)</f>
-        <v>39527.741498006959</v>
+        <f>K21*(1+$N$15)</f>
+        <v>72637.362225978883</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="22"/>
-        <v>40318.296327967102</v>
+        <f>L21*(1+$N$15)</f>
+        <v>73363.735848238677</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="22"/>
-        <v>41124.662254526447</v>
+        <f>M21*(1+$N$15)</f>
+        <v>74097.373206721066</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="22"/>
-        <v>41947.15549961698</v>
+        <f>N21*(1+$N$15)</f>
+        <v>74838.34693878828</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="22"/>
-        <v>42786.098609609318</v>
+        <f>O21*(1+$N$15)</f>
+        <v>75586.730408176169</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="22"/>
-        <v>43641.820581801505</v>
+        <f>P21*(1+$N$15)</f>
+        <v>76342.597712257935</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="22"/>
-        <v>44514.656993437537</v>
+        <f>Q21*(1+$N$15)</f>
+        <v>77106.023689380512</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="22"/>
-        <v>45404.950133306287</v>
+        <f>R21*(1+$N$15)</f>
+        <v>77877.083926274325</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="22"/>
-        <v>46313.049135972411</v>
+        <f>S21*(1+$N$15)</f>
+        <v>78655.854765537064</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="22"/>
-        <v>47239.310118691857</v>
+        <f>T21*(1+$N$15)</f>
+        <v>79442.413313192432</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="22"/>
-        <v>48184.096321065692</v>
+        <f>U21*(1+$N$15)</f>
+        <v>80236.837446324353</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="22"/>
-        <v>49147.778247487004</v>
+        <f>V21*(1+$N$15)</f>
+        <v>81039.205820787596</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="22"/>
-        <v>50130.733812436745</v>
+        <f>W21*(1+$N$15)</f>
+        <v>81849.597878995468</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="22"/>
-        <v>51133.348488685479</v>
+        <f>X21*(1+$N$15)</f>
+        <v>82668.093857785425</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="22"/>
-        <v>52156.015458459187</v>
+        <f>Y21*(1+$N$15)</f>
+        <v>83494.774796363286</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="22"/>
-        <v>53199.135767628373</v>
+        <f>Z21*(1+$N$15)</f>
+        <v>84329.722544326927</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="22"/>
-        <v>54263.118482980943</v>
+        <f>AA21*(1+$N$15)</f>
+        <v>85173.019769770195</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="22"/>
-        <v>55348.380852640563</v>
+        <f>AB21*(1+$N$15)</f>
+        <v>86024.749967467898</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="22"/>
-        <v>56455.348469693374</v>
+        <f>AC21*(1+$N$15)</f>
+        <v>86884.997467142573</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="22"/>
-        <v>57584.455439087244</v>
+        <f>AD21*(1+$N$15)</f>
+        <v>87753.847441813996</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="22"/>
-        <v>58736.144547868993</v>
+        <f>AE21*(1+$N$15)</f>
+        <v>88631.385916232131</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="22"/>
-        <v>59910.867438826375</v>
+        <f>AF21*(1+$N$15)</f>
+        <v>89517.69977539446</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="22"/>
-        <v>61109.084787602907</v>
+        <f>AG21*(1+$N$15)</f>
+        <v>90412.876773148411</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="22"/>
-        <v>62331.266483354964</v>
+        <f>AH21*(1+$N$15)</f>
+        <v>91317.005540879894</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="22"/>
-        <v>63577.891813022063</v>
+        <f>AI21*(1+$N$15)</f>
+        <v>92230.175596288696</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="22"/>
-        <v>64849.449649282506</v>
+        <f>AJ21*(1+$N$15)</f>
+        <v>93152.47735225159</v>
       </c>
       <c r="AL21" s="3">
-        <f t="shared" si="22"/>
-        <v>66146.438642268156</v>
+        <f>AK21*(1+$N$15)</f>
+        <v>94084.002125774103</v>
       </c>
       <c r="AM21" s="3">
-        <f t="shared" si="22"/>
-        <v>67469.36741511352</v>
+        <f>AL21*(1+$N$15)</f>
+        <v>95024.842147031843</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" si="22"/>
-        <v>68818.754763415796</v>
+        <f>AM21*(1+$N$15)</f>
+        <v>95975.090568502157</v>
       </c>
       <c r="AO21" s="3">
-        <f t="shared" si="22"/>
-        <v>70195.129858684115</v>
+        <f>AN21*(1+$N$15)</f>
+        <v>96934.841474187182</v>
       </c>
       <c r="AP21" s="3">
-        <f t="shared" si="22"/>
-        <v>71599.0324558578</v>
+        <f>AO21*(1+$N$15)</f>
+        <v>97904.189888929061</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="22"/>
-        <v>73031.013104974962</v>
+        <f>AP21*(1+$N$15)</f>
+        <v>98883.231787818353</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="22"/>
-        <v>74491.633367074464</v>
+        <f>AQ21*(1+$N$15)</f>
+        <v>99872.06410569654</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" si="22"/>
-        <v>75981.466034415949</v>
+        <f>AR21*(1+$N$15)</f>
+        <v>100870.7847467535</v>
       </c>
       <c r="AT21" s="3">
-        <f t="shared" si="22"/>
-        <v>77501.095355104277</v>
+        <f>AS21*(1+$N$15)</f>
+        <v>101879.49259422104</v>
       </c>
       <c r="AU21" s="3">
-        <f t="shared" si="22"/>
-        <v>79051.11726220636</v>
+        <f>AT21*(1+$N$15)</f>
+        <v>102898.28752016326</v>
       </c>
       <c r="AV21" s="3">
-        <f t="shared" si="22"/>
-        <v>80632.139607450488</v>
+        <f>AU21*(1+$N$15)</f>
+        <v>103927.27039536489</v>
       </c>
       <c r="AW21" s="3">
-        <f t="shared" si="22"/>
-        <v>82244.782399599499</v>
+        <f>AV21*(1+$N$15)</f>
+        <v>104966.54309931854</v>
       </c>
       <c r="AX21" s="3">
-        <f t="shared" si="22"/>
-        <v>83889.678047591486</v>
+        <f>AW21*(1+$N$15)</f>
+        <v>106016.20853031173</v>
       </c>
       <c r="AY21" s="3">
-        <f t="shared" si="22"/>
-        <v>85567.471608543317</v>
+        <f>AX21*(1+$N$15)</f>
+        <v>107076.37061561485</v>
       </c>
       <c r="AZ21" s="3">
-        <f t="shared" si="22"/>
-        <v>87278.821040714189</v>
+        <f>AY21*(1+$N$15)</f>
+        <v>108147.13432177101</v>
       </c>
       <c r="BA21" s="3">
-        <f t="shared" si="22"/>
-        <v>89024.397461528468</v>
+        <f>AZ21*(1+$N$15)</f>
+        <v>109228.60566498872</v>
       </c>
       <c r="BB21" s="3">
-        <f t="shared" si="22"/>
-        <v>90804.885410759045</v>
+        <f>BA21*(1+$N$15)</f>
+        <v>110320.8917216386</v>
       </c>
       <c r="BC21" s="3">
-        <f t="shared" si="22"/>
-        <v>92620.983118974225</v>
+        <f>BB21*(1+$N$15)</f>
+        <v>111424.10063885499</v>
       </c>
       <c r="BD21" s="3">
-        <f t="shared" si="22"/>
-        <v>94473.40278135371</v>
+        <f>BC21*(1+$N$15)</f>
+        <v>112538.34164524353</v>
       </c>
       <c r="BE21" s="3">
-        <f t="shared" si="22"/>
-        <v>96362.870836980786</v>
+        <f>BD21*(1+$N$15)</f>
+        <v>113663.72506169596</v>
       </c>
       <c r="BF21" s="3">
-        <f t="shared" si="22"/>
-        <v>98290.12825372041</v>
+        <f>BE21*(1+$N$15)</f>
+        <v>114800.36231231292</v>
       </c>
       <c r="BG21" s="3">
-        <f t="shared" si="22"/>
-        <v>100255.93081879482</v>
+        <f>BF21*(1+$N$15)</f>
+        <v>115948.36593543606</v>
       </c>
       <c r="BH21" s="3">
-        <f t="shared" si="22"/>
-        <v>102261.04943517072</v>
+        <f>BG21*(1+$N$15)</f>
+        <v>117107.84959479042</v>
       </c>
       <c r="BI21" s="3">
-        <f t="shared" si="22"/>
-        <v>104306.27042387413</v>
+        <f>BH21*(1+$N$15)</f>
+        <v>118278.92809073832</v>
       </c>
       <c r="BJ21" s="3">
-        <f t="shared" si="22"/>
-        <v>106392.39583235161</v>
+        <f>BI21*(1+$N$15)</f>
+        <v>119461.7173716457</v>
       </c>
       <c r="BK21" s="3">
-        <f t="shared" si="22"/>
-        <v>108520.24374899865</v>
+        <f>BJ21*(1+$N$15)</f>
+        <v>120656.33454536216</v>
       </c>
       <c r="BL21" s="3">
-        <f t="shared" si="22"/>
-        <v>110690.64862397862</v>
+        <f>BK21*(1+$N$15)</f>
+        <v>121862.89789081579</v>
       </c>
       <c r="BM21" s="3">
-        <f t="shared" si="22"/>
-        <v>112904.46159645819</v>
+        <f>BL21*(1+$N$15)</f>
+        <v>123081.52686972395</v>
       </c>
       <c r="BN21" s="3">
-        <f t="shared" si="22"/>
-        <v>115162.55082838735</v>
+        <f>BM21*(1+$N$15)</f>
+        <v>124312.3421384212</v>
       </c>
       <c r="BO21" s="3">
-        <f t="shared" si="22"/>
-        <v>117465.8018449551</v>
+        <f>BN21*(1+$N$15)</f>
+        <v>125555.46555980541</v>
       </c>
       <c r="BP21" s="3">
-        <f t="shared" si="22"/>
-        <v>119815.11788185421</v>
+        <f>BO21*(1+$N$15)</f>
+        <v>126811.02021540346</v>
       </c>
       <c r="BQ21" s="3">
-        <f t="shared" si="22"/>
-        <v>122211.4202394913</v>
+        <f>BP21*(1+$N$15)</f>
+        <v>128079.13041755751</v>
       </c>
       <c r="BR21" s="3">
-        <f t="shared" si="22"/>
-        <v>124655.64864428113</v>
+        <f>BQ21*(1+$N$15)</f>
+        <v>129359.92172173309</v>
       </c>
       <c r="BS21" s="3">
-        <f t="shared" si="22"/>
-        <v>127148.76161716675</v>
+        <f>BR21*(1+$N$15)</f>
+        <v>130653.52093895042</v>
       </c>
       <c r="BT21" s="3">
-        <f t="shared" si="22"/>
-        <v>129691.73684951008</v>
+        <f>BS21*(1+$N$15)</f>
+        <v>131960.05614833994</v>
       </c>
       <c r="BU21" s="3">
-        <f t="shared" si="22"/>
-        <v>132285.57158650027</v>
+        <f>BT21*(1+$N$15)</f>
+        <v>133279.65670982335</v>
       </c>
       <c r="BV21" s="3">
-        <f t="shared" si="22"/>
-        <v>134931.28301823029</v>
+        <f>BU21*(1+$N$15)</f>
+        <v>134612.45327692159</v>
       </c>
       <c r="BW21" s="3">
-        <f t="shared" si="22"/>
-        <v>137629.90867859489</v>
+        <f>BV21*(1+$N$15)</f>
+        <v>135958.57780969082</v>
       </c>
       <c r="BX21" s="3">
-        <f t="shared" ref="BX21:DD21" si="23">BW21*(1+$M$15)</f>
-        <v>140382.50685216679</v>
+        <f>BW21*(1+$N$15)</f>
+        <v>137318.16358778774</v>
       </c>
       <c r="BY21" s="3">
-        <f t="shared" si="23"/>
-        <v>143190.15698921011</v>
+        <f>BX21*(1+$N$15)</f>
+        <v>138691.34522366562</v>
       </c>
       <c r="BZ21" s="3">
-        <f t="shared" si="23"/>
-        <v>146053.96012899431</v>
+        <f>BY21*(1+$N$15)</f>
+        <v>140078.25867590227</v>
       </c>
       <c r="CA21" s="3">
-        <f t="shared" si="23"/>
-        <v>148975.0393315742</v>
+        <f>BZ21*(1+$N$15)</f>
+        <v>141479.04126266128</v>
       </c>
       <c r="CB21" s="3">
-        <f t="shared" si="23"/>
-        <v>151954.54011820568</v>
+        <f>CA21*(1+$N$15)</f>
+        <v>142893.83167528789</v>
       </c>
       <c r="CC21" s="3">
-        <f t="shared" si="23"/>
-        <v>154993.63092056979</v>
+        <f>CB21*(1+$N$15)</f>
+        <v>144322.76999204076</v>
       </c>
       <c r="CD21" s="3">
-        <f t="shared" si="23"/>
-        <v>158093.5035389812</v>
+        <f>CC21*(1+$N$15)</f>
+        <v>145765.99769196118</v>
       </c>
       <c r="CE21" s="3">
-        <f t="shared" si="23"/>
-        <v>161255.37360976083</v>
+        <f>CD21*(1+$N$15)</f>
+        <v>147223.6576688808</v>
       </c>
       <c r="CF21" s="3">
-        <f t="shared" si="23"/>
-        <v>164480.48108195607</v>
+        <f>CE21*(1+$N$15)</f>
+        <v>148695.89424556959</v>
       </c>
       <c r="CG21" s="3">
-        <f t="shared" si="23"/>
-        <v>167770.0907035952</v>
+        <f>CF21*(1+$N$15)</f>
+        <v>150182.8531880253</v>
       </c>
       <c r="CH21" s="3">
-        <f t="shared" si="23"/>
-        <v>171125.49251766709</v>
+        <f>CG21*(1+$N$15)</f>
+        <v>151684.68171990555</v>
       </c>
       <c r="CI21" s="3">
-        <f t="shared" si="23"/>
-        <v>174548.00236802045</v>
+        <f>CH21*(1+$N$15)</f>
+        <v>153201.5285371046</v>
       </c>
       <c r="CJ21" s="3">
-        <f t="shared" si="23"/>
-        <v>178038.96241538087</v>
+        <f>CI21*(1+$N$15)</f>
+        <v>154733.54382247565</v>
       </c>
       <c r="CK21" s="3">
-        <f t="shared" si="23"/>
-        <v>181599.7416636885</v>
+        <f>CJ21*(1+$N$15)</f>
+        <v>156280.8792607004</v>
       </c>
       <c r="CL21" s="3">
-        <f t="shared" si="23"/>
-        <v>185231.73649696229</v>
+        <f>CK21*(1+$N$15)</f>
+        <v>157843.68805330741</v>
       </c>
       <c r="CM21" s="3">
-        <f t="shared" si="23"/>
-        <v>188936.37122690154</v>
+        <f>CL21*(1+$N$15)</f>
+        <v>159422.1249338405</v>
       </c>
       <c r="CN21" s="3">
-        <f t="shared" si="23"/>
-        <v>192715.09865143956</v>
+        <f>CM21*(1+$N$15)</f>
+        <v>161016.34618317892</v>
       </c>
       <c r="CO21" s="3">
-        <f t="shared" si="23"/>
-        <v>196569.40062446837</v>
+        <f>CN21*(1+$N$15)</f>
+        <v>162626.50964501069</v>
       </c>
       <c r="CP21" s="3">
-        <f t="shared" si="23"/>
-        <v>200500.78863695773</v>
+        <f>CO21*(1+$N$15)</f>
+        <v>164252.7747414608</v>
       </c>
       <c r="CQ21" s="3">
-        <f t="shared" si="23"/>
-        <v>204510.8044096969</v>
+        <f>CP21*(1+$N$15)</f>
+        <v>165895.3024888754</v>
       </c>
       <c r="CR21" s="3">
-        <f t="shared" si="23"/>
-        <v>208601.02049789083</v>
+        <f>CQ21*(1+$N$15)</f>
+        <v>167554.25551376416</v>
       </c>
       <c r="CS21" s="3">
-        <f t="shared" si="23"/>
-        <v>212773.04090784866</v>
+        <f>CR21*(1+$N$15)</f>
+        <v>169229.79806890181</v>
       </c>
       <c r="CT21" s="3">
-        <f t="shared" si="23"/>
-        <v>217028.50172600563</v>
+        <f>CS21*(1+$N$15)</f>
+        <v>170922.09604959082</v>
       </c>
       <c r="CU21" s="3">
-        <f t="shared" si="23"/>
-        <v>221369.07176052575</v>
+        <f>CT21*(1+$N$15)</f>
+        <v>172631.31701008673</v>
       </c>
       <c r="CV21" s="3">
-        <f t="shared" si="23"/>
-        <v>225796.45319573628</v>
+        <f>CU21*(1+$N$15)</f>
+        <v>174357.63018018761</v>
       </c>
       <c r="CW21" s="3">
-        <f t="shared" si="23"/>
-        <v>230312.382259651</v>
+        <f>CV21*(1+$N$15)</f>
+        <v>176101.2064819895</v>
       </c>
       <c r="CX21" s="3">
-        <f t="shared" si="23"/>
-        <v>234918.62990484401</v>
+        <f>CW21*(1+$N$15)</f>
+        <v>177862.2185468094</v>
       </c>
       <c r="CY21" s="3">
-        <f t="shared" si="23"/>
-        <v>239617.00250294089</v>
+        <f>CX21*(1+$N$15)</f>
+        <v>179640.84073227749</v>
       </c>
       <c r="CZ21" s="3">
-        <f t="shared" si="23"/>
-        <v>244409.3425529997</v>
+        <f>CY21*(1+$N$15)</f>
+        <v>181437.24913960026</v>
       </c>
       <c r="DA21" s="3">
-        <f t="shared" si="23"/>
-        <v>249297.52940405969</v>
+        <f>CZ21*(1+$N$15)</f>
+        <v>183251.62163099626</v>
       </c>
       <c r="DB21" s="3">
-        <f t="shared" si="23"/>
-        <v>254283.4799921409</v>
+        <f>DA21*(1+$N$15)</f>
+        <v>185084.13784730624</v>
       </c>
       <c r="DC21" s="3">
-        <f t="shared" si="23"/>
-        <v>259369.14959198373</v>
+        <f>DB21*(1+$N$15)</f>
+        <v>186934.9792257793</v>
       </c>
       <c r="DD21" s="3">
-        <f t="shared" si="23"/>
-        <v>264556.53258382343</v>
+        <f>DC21*(1+$N$15)</f>
+        <v>188804.3290180371</v>
       </c>
     </row>
     <row r="22" spans="2:108" x14ac:dyDescent="0.2">
@@ -1771,6 +1820,9 @@
       <c r="J22" s="1">
         <v>2823</v>
       </c>
+      <c r="K22" s="1">
+        <v>2823</v>
+      </c>
     </row>
     <row r="23" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -1790,23 +1842,27 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="24"/>
-        <v>5.9706848179618319</v>
+        <v>6.4145071194847709</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="24"/>
-        <v>7.339288945071325</v>
+        <v>8.4734354472885052</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="24"/>
-        <v>8.9992072920574255</v>
+        <v>11.172129334616002</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="24"/>
-        <v>11.013357572076041</v>
+        <v>14.713156560266457</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="24"/>
-        <v>13.458317789843955</v>
+        <v>19.363626159652203</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" ref="K23" si="25">K21/K22</f>
+        <v>25.475798945009306</v>
       </c>
     </row>
     <row r="25" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1822,211 +1878,238 @@
         <v>6.0195379749369504E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:J25" si="25">F7/E7-1</f>
-        <v>0.16872151205604125</v>
+        <f t="shared" ref="F25:K25" si="26">F7/E7-1</f>
+        <v>0.24821113649666748</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="25"/>
-        <v>0.17190765705290079</v>
+        <f t="shared" si="26"/>
+        <v>0.25586817848953136</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="25"/>
-        <v>0.17479277491744649</v>
+        <f t="shared" si="26"/>
+        <v>0.26247078711494654</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="25"/>
-        <v>0.17739384221935905</v>
+        <f t="shared" si="26"/>
+        <v>0.26811292496002093</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="25"/>
-        <v>0.17972988085841712</v>
-      </c>
-    </row>
-    <row r="26" spans="2:108" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+        <f t="shared" si="26"/>
+        <v>0.2729000032297475</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="26"/>
+        <v>0.27693973863514754</v>
+      </c>
+    </row>
+    <row r="27" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4">
-        <f>C20/C19</f>
-        <v>6.5518453427065027E-2</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" ref="D26:E26" si="26">D20/D19</f>
-        <v>4.4981949458483751E-2</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="26"/>
-        <v>8.1839789297873708E-2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="C27" s="6">
         <f>C12/C7</f>
         <v>0.79083411875589071</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" ref="D28:E28" si="27">D12/D7</f>
+      <c r="D27" s="6">
+        <f>D12/D7</f>
         <v>0.72847019257717105</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E27" s="6">
+        <f>E12/E7</f>
+        <v>0.71407261947470779</v>
+      </c>
+      <c r="F27" s="6">
+        <f>E27*1.01</f>
+        <v>0.72121334566945483</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" ref="G27:K27" si="27">F27*1.01</f>
+        <v>0.72842547912614941</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" si="27"/>
-        <v>0.71407261947470779</v>
-      </c>
-      <c r="F28" s="6">
-        <f>E28*1.01</f>
-        <v>0.72121334566945483</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" ref="G28:J28" si="28">F28*1.01</f>
-        <v>0.72842547912614941</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="28"/>
         <v>0.7357097339174109</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="28"/>
+      <c r="I27" s="6">
+        <f t="shared" si="27"/>
         <v>0.74306683125658501</v>
       </c>
-      <c r="J28" s="6">
-        <f t="shared" si="28"/>
+      <c r="J27" s="6">
+        <f t="shared" si="27"/>
         <v>0.75049749956915091</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="27"/>
+        <v>0.75800247456484238</v>
+      </c>
+    </row>
+    <row r="28" spans="2:108" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4">
+        <f>C17/C7</f>
+        <v>0.40009425070688032</v>
+      </c>
+      <c r="D28" s="4">
+        <f>D17/D7</f>
+        <v>0.34741962605597149</v>
+      </c>
+      <c r="E28" s="4">
+        <f>E17/E7</f>
+        <v>0.36028398255319954</v>
+      </c>
+      <c r="F28" s="4">
+        <f>F17/F7</f>
+        <v>0.36742470874794658</v>
+      </c>
+      <c r="G28" s="4">
+        <f>G17/G7</f>
+        <v>0.37463684220464127</v>
+      </c>
+      <c r="H28" s="4">
+        <f>H17/H7</f>
+        <v>0.38192109699590265</v>
+      </c>
+      <c r="I28" s="4">
+        <f>I17/I7</f>
+        <v>0.38927819433507677</v>
+      </c>
+      <c r="J28" s="4">
+        <f>J17/J7</f>
+        <v>0.3967088626476426</v>
+      </c>
+      <c r="K28" s="4">
+        <f>K17/K7</f>
+        <v>0.40421383764333407</v>
       </c>
     </row>
     <row r="29" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4">
+        <f>C34/C7</f>
+        <v>0.11847313854853911</v>
+      </c>
+      <c r="D29" s="4">
+        <f>D34/D7</f>
+        <v>0.16955599151219122</v>
+      </c>
+      <c r="E29" s="4">
+        <f>E34/E7</f>
+        <v>0.22293763335284456</v>
+      </c>
+      <c r="F29" s="4">
+        <f>F34/F7</f>
+        <v>0.2299892373633429</v>
+      </c>
+      <c r="G29" s="4">
+        <f>G34/G7</f>
+        <v>0.23718187345405115</v>
+      </c>
+      <c r="H29" s="4">
+        <f>H34/H7</f>
+        <v>0.24451836226657353</v>
+      </c>
+      <c r="I29" s="4">
+        <f>I34/I7</f>
+        <v>0.25200158085534646</v>
+      </c>
+      <c r="J29" s="4">
+        <f>J34/J7</f>
+        <v>0.25963446381589472</v>
+      </c>
+      <c r="K29" s="4">
+        <f>K34/K7</f>
+        <v>0.26742000443565406</v>
+      </c>
+    </row>
+    <row r="30" spans="2:108" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:108" x14ac:dyDescent="0.2">
+      <c r="C31" s="4">
+        <f>C32/C7</f>
+        <v>0.22476437323279924</v>
+      </c>
+      <c r="D31" s="4">
+        <f>D32/D7</f>
+        <v>0.34361612683668974</v>
+      </c>
+      <c r="E31" s="4">
+        <f>E32/E7</f>
+        <v>0.35258020052491457</v>
+      </c>
+      <c r="F31" s="4">
+        <f>E31*1.02</f>
+        <v>0.35963180453541288</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" ref="G31:K31" si="28">F31*1.02</f>
+        <v>0.36682444062612113</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="28"/>
+        <v>0.37416092943864354</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="28"/>
+        <v>0.38164414802741642</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="28"/>
+        <v>0.38927703098796473</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="28"/>
+        <v>0.39706257160772401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:108" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4">
-        <f>C17/C7</f>
-        <v>0.40009425070688032</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" ref="D29:J29" si="29">D17/D7</f>
-        <v>0.34741962605597149</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="29"/>
-        <v>0.36028398255319954</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="29"/>
-        <v>0.36742470874794664</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="29"/>
-        <v>0.37463684220464122</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="29"/>
-        <v>0.3819210969959026</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="29"/>
-        <v>0.38927819433507677</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="29"/>
-        <v>0.3967088626476426</v>
-      </c>
-    </row>
-    <row r="30" spans="2:108" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" ref="C30:J30" si="30">C35/C7</f>
-        <v>0.11847313854853911</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="30"/>
-        <v>0.16955599151219122</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="30"/>
-        <v>0.22293763335284456</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="30"/>
-        <v>0.22998923736334287</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="30"/>
-        <v>0.23718187345405109</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="30"/>
-        <v>0.2445183622665735</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="30"/>
-        <v>0.25200158085534641</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="30"/>
-        <v>0.25963446381589472</v>
-      </c>
-    </row>
-    <row r="31" spans="2:108" x14ac:dyDescent="0.2">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="2:108" x14ac:dyDescent="0.2">
-      <c r="C32" s="4">
-        <f>C33/C7</f>
-        <v>0.22476437323279924</v>
-      </c>
-      <c r="D32" s="4">
-        <f>D33/D7</f>
-        <v>0.34361612683668974</v>
-      </c>
-      <c r="E32" s="4">
-        <f>E33/E7</f>
-        <v>0.35258020052491457</v>
-      </c>
-      <c r="F32" s="4">
-        <f>E32*1.02</f>
-        <v>0.35963180453541288</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" ref="G32:J32" si="31">F32*1.02</f>
-        <v>0.36682444062612113</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="31"/>
-        <v>0.37416092943864354</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="31"/>
-        <v>0.38164414802741642</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="31"/>
-        <v>0.38927703098796473</v>
+      <c r="C32" s="1">
+        <v>9539</v>
+      </c>
+      <c r="D32" s="1">
+        <v>17165</v>
+      </c>
+      <c r="E32" s="1">
+        <v>18673</v>
+      </c>
+      <c r="F32" s="1">
+        <f>F31*F7</f>
+        <v>23774.003482838321</v>
+      </c>
+      <c r="G32" s="1">
+        <f>G31*G7</f>
+        <v>30454.154738383855</v>
+      </c>
+      <c r="H32" s="1">
+        <f>H31*H7</f>
+        <v>39216.430317557599</v>
+      </c>
+      <c r="I32" s="1">
+        <f>I31*I7</f>
+        <v>50725.479399618591</v>
+      </c>
+      <c r="J32" s="1">
+        <f>J31*J7</f>
+        <v>65859.83214943709</v>
+      </c>
+      <c r="K32" s="1">
+        <f>K31*K7</f>
+        <v>85781.017588486022</v>
       </c>
     </row>
     <row r="33" spans="2:99" x14ac:dyDescent="0.2">
@@ -2034,461 +2117,442 @@
         <v>30</v>
       </c>
       <c r="C33" s="1">
-        <v>9539</v>
+        <v>4511</v>
       </c>
       <c r="D33" s="1">
-        <v>17165</v>
+        <v>8695</v>
       </c>
       <c r="E33" s="1">
-        <v>18673</v>
+        <v>6866</v>
       </c>
       <c r="F33" s="1">
-        <f>F32*F7</f>
-        <v>22260.007530514911</v>
+        <f>E33*(1+F25)</f>
+        <v>8570.2176631861184</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" ref="G33:J33" si="32">G32*G7</f>
-        <v>26608.406736486966</v>
+        <f>F33*(1+G25)</f>
+        <v>10763.063645924358</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="32"/>
-        <v>31884.551265811391</v>
+        <f>G33*(1+H25)</f>
+        <v>13588.053432838391</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="32"/>
-        <v>38291.487808739679</v>
+        <f>H33*(1+I25)</f>
+        <v>17231.186183229744</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="32"/>
-        <v>46077.084597505913</v>
-      </c>
-    </row>
-    <row r="34" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+        <f>I33*(1+J25)</f>
+        <v>21933.576948285521</v>
+      </c>
+      <c r="K33" s="1">
+        <f>J33*(1+K25)</f>
+        <v>28007.856015677611</v>
+      </c>
+    </row>
+    <row r="34" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
-        <v>4511</v>
-      </c>
-      <c r="D34" s="1">
-        <v>8695</v>
-      </c>
-      <c r="E34" s="1">
-        <v>6866</v>
-      </c>
-      <c r="F34" s="1">
-        <f>E34*(1+F25)</f>
-        <v>8024.4419017767796</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ref="G34:J34" si="33">F34*(1+G25)</f>
-        <v>9403.9049082683487</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="33"/>
-        <v>11047.639542244369</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="33"/>
-        <v>13007.422768097618</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="33"/>
-        <v>15345.245312482866</v>
-      </c>
-    </row>
-    <row r="35" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3">
-        <f>C33-C34</f>
+      <c r="C34" s="3">
+        <f>C32-C33</f>
         <v>5028</v>
       </c>
-      <c r="D35" s="3">
-        <f t="shared" ref="D35:E35" si="34">D33-D34</f>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:E34" si="29">D32-D33</f>
         <v>8470</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E34" s="3">
+        <f t="shared" si="29"/>
+        <v>11807</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ref="F34" si="30">F32-F33</f>
+        <v>15203.785819652203</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" ref="G34" si="31">G32-G33</f>
+        <v>19691.091092459497</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" ref="H34" si="32">H32-H33</f>
+        <v>25628.376884719208</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" ref="I34" si="33">I32-I33</f>
+        <v>33494.293216388847</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" ref="J34:K34" si="34">J32-J33</f>
+        <v>43926.255201151565</v>
+      </c>
+      <c r="K34" s="3">
         <f t="shared" si="34"/>
-        <v>11807</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" ref="F35" si="35">F33-F34</f>
-        <v>14235.565628738132</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" ref="G35" si="36">G33-G34</f>
-        <v>17204.501828218617</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" ref="H35" si="37">H33-H34</f>
-        <v>20836.91172356702</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" ref="I35" si="38">I33-I34</f>
-        <v>25284.065040642061</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" ref="J35" si="39">J33-J34</f>
-        <v>30731.839285023045</v>
-      </c>
-      <c r="K35" s="3">
-        <f>J35*(1+$M$15)</f>
-        <v>31346.476070723507</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" ref="L35:BW35" si="40">K35*(1+$M$15)</f>
-        <v>31973.405592137977</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="40"/>
-        <v>32612.873703980738</v>
-      </c>
-      <c r="N35" s="3">
-        <f t="shared" si="40"/>
-        <v>33265.13117806035</v>
-      </c>
-      <c r="O35" s="3">
-        <f t="shared" si="40"/>
-        <v>33930.433801621555</v>
-      </c>
-      <c r="P35" s="3">
-        <f t="shared" si="40"/>
-        <v>34609.042477653988</v>
-      </c>
-      <c r="Q35" s="3">
-        <f t="shared" si="40"/>
-        <v>35301.223327207066</v>
-      </c>
-      <c r="R35" s="3">
-        <f t="shared" si="40"/>
-        <v>36007.247793751209</v>
-      </c>
-      <c r="S35" s="3">
-        <f t="shared" si="40"/>
-        <v>36727.392749626233</v>
-      </c>
-      <c r="T35" s="3">
-        <f t="shared" si="40"/>
-        <v>37461.940604618758</v>
-      </c>
-      <c r="U35" s="3">
-        <f t="shared" si="40"/>
-        <v>38211.179416711137</v>
-      </c>
-      <c r="V35" s="3">
-        <f t="shared" si="40"/>
-        <v>38975.403005045358</v>
-      </c>
-      <c r="W35" s="3">
-        <f t="shared" si="40"/>
-        <v>39754.911065146269</v>
-      </c>
-      <c r="X35" s="3">
-        <f t="shared" si="40"/>
-        <v>40550.009286449196</v>
-      </c>
-      <c r="Y35" s="3">
-        <f t="shared" si="40"/>
-        <v>41361.009472178179</v>
-      </c>
-      <c r="Z35" s="3">
-        <f t="shared" si="40"/>
-        <v>42188.229661621743</v>
-      </c>
-      <c r="AA35" s="3">
-        <f t="shared" si="40"/>
-        <v>43031.99425485418</v>
-      </c>
-      <c r="AB35" s="3">
-        <f t="shared" si="40"/>
-        <v>43892.634139951268</v>
-      </c>
-      <c r="AC35" s="3">
-        <f t="shared" si="40"/>
-        <v>44770.486822750296</v>
-      </c>
-      <c r="AD35" s="3">
-        <f t="shared" si="40"/>
-        <v>45665.896559205299</v>
-      </c>
-      <c r="AE35" s="3">
-        <f t="shared" si="40"/>
-        <v>46579.214490389408</v>
-      </c>
-      <c r="AF35" s="3">
-        <f t="shared" si="40"/>
-        <v>47510.798780197198</v>
-      </c>
-      <c r="AG35" s="3">
-        <f t="shared" si="40"/>
-        <v>48461.014755801145</v>
-      </c>
-      <c r="AH35" s="3">
-        <f t="shared" si="40"/>
-        <v>49430.235050917167</v>
-      </c>
-      <c r="AI35" s="3">
-        <f t="shared" si="40"/>
-        <v>50418.839751935513</v>
-      </c>
-      <c r="AJ35" s="3">
-        <f t="shared" si="40"/>
-        <v>51427.216546974225</v>
-      </c>
-      <c r="AK35" s="3">
-        <f t="shared" si="40"/>
-        <v>52455.760877913708</v>
-      </c>
-      <c r="AL35" s="3">
-        <f t="shared" si="40"/>
-        <v>53504.876095471984</v>
-      </c>
-      <c r="AM35" s="3">
-        <f t="shared" si="40"/>
-        <v>54574.973617381424</v>
-      </c>
-      <c r="AN35" s="3">
-        <f t="shared" si="40"/>
-        <v>55666.47308972905</v>
-      </c>
-      <c r="AO35" s="3">
-        <f t="shared" si="40"/>
-        <v>56779.80255152363</v>
-      </c>
-      <c r="AP35" s="3">
-        <f t="shared" si="40"/>
-        <v>57915.398602554102</v>
-      </c>
-      <c r="AQ35" s="3">
-        <f t="shared" si="40"/>
-        <v>59073.706574605181</v>
-      </c>
-      <c r="AR35" s="3">
-        <f t="shared" si="40"/>
-        <v>60255.180706097286</v>
-      </c>
-      <c r="AS35" s="3">
-        <f t="shared" si="40"/>
-        <v>61460.284320219231</v>
-      </c>
-      <c r="AT35" s="3">
-        <f t="shared" si="40"/>
-        <v>62689.490006623615</v>
-      </c>
-      <c r="AU35" s="3">
-        <f t="shared" si="40"/>
-        <v>63943.279806756087</v>
-      </c>
-      <c r="AV35" s="3">
-        <f t="shared" si="40"/>
-        <v>65222.145402891212</v>
-      </c>
-      <c r="AW35" s="3">
-        <f t="shared" si="40"/>
-        <v>66526.588310949039</v>
-      </c>
-      <c r="AX35" s="3">
-        <f t="shared" si="40"/>
-        <v>67857.120077168016</v>
-      </c>
-      <c r="AY35" s="3">
-        <f t="shared" si="40"/>
-        <v>69214.262478711375</v>
-      </c>
-      <c r="AZ35" s="3">
-        <f t="shared" si="40"/>
-        <v>70598.547728285601</v>
-      </c>
-      <c r="BA35" s="3">
-        <f t="shared" si="40"/>
-        <v>72010.518682851311</v>
-      </c>
-      <c r="BB35" s="3">
-        <f t="shared" si="40"/>
-        <v>73450.729056508339</v>
-      </c>
-      <c r="BC35" s="3">
-        <f t="shared" si="40"/>
-        <v>74919.743637638501</v>
-      </c>
-      <c r="BD35" s="3">
-        <f t="shared" si="40"/>
-        <v>76418.138510391276</v>
-      </c>
-      <c r="BE35" s="3">
-        <f t="shared" si="40"/>
-        <v>77946.501280599099</v>
-      </c>
-      <c r="BF35" s="3">
-        <f t="shared" si="40"/>
-        <v>79505.431306211089</v>
-      </c>
-      <c r="BG35" s="3">
-        <f t="shared" si="40"/>
-        <v>81095.539932335305</v>
-      </c>
-      <c r="BH35" s="3">
-        <f t="shared" si="40"/>
-        <v>82717.450730982018</v>
-      </c>
-      <c r="BI35" s="3">
-        <f t="shared" si="40"/>
-        <v>84371.79974560166</v>
-      </c>
-      <c r="BJ35" s="3">
-        <f t="shared" si="40"/>
-        <v>86059.235740513701</v>
-      </c>
-      <c r="BK35" s="3">
-        <f t="shared" si="40"/>
-        <v>87780.420455323983</v>
-      </c>
-      <c r="BL35" s="3">
-        <f t="shared" si="40"/>
-        <v>89536.028864430467</v>
-      </c>
-      <c r="BM35" s="3">
-        <f t="shared" si="40"/>
-        <v>91326.749441719076</v>
-      </c>
-      <c r="BN35" s="3">
-        <f t="shared" si="40"/>
-        <v>93153.284430553453</v>
-      </c>
-      <c r="BO35" s="3">
-        <f t="shared" si="40"/>
-        <v>95016.350119164519</v>
-      </c>
-      <c r="BP35" s="3">
-        <f t="shared" si="40"/>
-        <v>96916.677121547807</v>
-      </c>
-      <c r="BQ35" s="3">
-        <f t="shared" si="40"/>
-        <v>98855.01066397877</v>
-      </c>
-      <c r="BR35" s="3">
-        <f t="shared" si="40"/>
-        <v>100832.11087725835</v>
-      </c>
-      <c r="BS35" s="3">
-        <f t="shared" si="40"/>
-        <v>102848.75309480353</v>
-      </c>
-      <c r="BT35" s="3">
-        <f t="shared" si="40"/>
-        <v>104905.7281566996</v>
-      </c>
-      <c r="BU35" s="3">
-        <f t="shared" si="40"/>
-        <v>107003.84271983358</v>
-      </c>
-      <c r="BV35" s="3">
-        <f t="shared" si="40"/>
-        <v>109143.91957423025</v>
-      </c>
-      <c r="BW35" s="3">
-        <f t="shared" si="40"/>
-        <v>111326.79796571487</v>
-      </c>
-      <c r="BX35" s="3">
-        <f t="shared" ref="BX35:CU35" si="41">BW35*(1+$M$15)</f>
-        <v>113553.33392502916</v>
-      </c>
-      <c r="BY35" s="3">
-        <f t="shared" si="41"/>
-        <v>115824.40060352975</v>
-      </c>
-      <c r="BZ35" s="3">
-        <f t="shared" si="41"/>
-        <v>118140.88861560034</v>
-      </c>
-      <c r="CA35" s="3">
-        <f t="shared" si="41"/>
-        <v>120503.70638791235</v>
-      </c>
-      <c r="CB35" s="3">
-        <f t="shared" si="41"/>
-        <v>122913.78051567059</v>
-      </c>
-      <c r="CC35" s="3">
-        <f t="shared" si="41"/>
-        <v>125372.056125984</v>
-      </c>
-      <c r="CD35" s="3">
-        <f t="shared" si="41"/>
-        <v>127879.49724850369</v>
-      </c>
-      <c r="CE35" s="3">
-        <f t="shared" si="41"/>
-        <v>130437.08719347377</v>
-      </c>
-      <c r="CF35" s="3">
-        <f t="shared" si="41"/>
-        <v>133045.82893734323</v>
-      </c>
-      <c r="CG35" s="3">
-        <f t="shared" si="41"/>
-        <v>135706.7455160901</v>
-      </c>
-      <c r="CH35" s="3">
-        <f t="shared" si="41"/>
-        <v>138420.8804264119</v>
-      </c>
-      <c r="CI35" s="3">
-        <f t="shared" si="41"/>
-        <v>141189.29803494015</v>
-      </c>
-      <c r="CJ35" s="3">
-        <f t="shared" si="41"/>
-        <v>144013.08399563894</v>
-      </c>
-      <c r="CK35" s="3">
-        <f t="shared" si="41"/>
-        <v>146893.34567555171</v>
-      </c>
-      <c r="CL35" s="3">
-        <f t="shared" si="41"/>
-        <v>149831.21258906275</v>
-      </c>
-      <c r="CM35" s="3">
-        <f t="shared" si="41"/>
-        <v>152827.83684084401</v>
-      </c>
-      <c r="CN35" s="3">
-        <f t="shared" si="41"/>
-        <v>155884.3935776609</v>
-      </c>
-      <c r="CO35" s="3">
-        <f t="shared" si="41"/>
-        <v>159002.08144921411</v>
-      </c>
-      <c r="CP35" s="3">
-        <f t="shared" si="41"/>
-        <v>162182.1230781984</v>
-      </c>
-      <c r="CQ35" s="3">
-        <f t="shared" si="41"/>
-        <v>165425.76553976239</v>
-      </c>
-      <c r="CR35" s="3">
-        <f t="shared" si="41"/>
-        <v>168734.28085055764</v>
-      </c>
-      <c r="CS35" s="3">
-        <f t="shared" si="41"/>
-        <v>172108.9664675688</v>
-      </c>
-      <c r="CT35" s="3">
-        <f t="shared" si="41"/>
-        <v>175551.14579692017</v>
-      </c>
-      <c r="CU35" s="3">
-        <f t="shared" si="41"/>
-        <v>179062.16871285858</v>
-      </c>
+        <v>57773.161572808414</v>
+      </c>
+      <c r="L34" s="3">
+        <f>K34*(1+$N$15)</f>
+        <v>58350.893188536502</v>
+      </c>
+      <c r="M34" s="3">
+        <f>L34*(1+$N$15)</f>
+        <v>58934.402120421866</v>
+      </c>
+      <c r="N34" s="3">
+        <f>M34*(1+$N$15)</f>
+        <v>59523.746141626085</v>
+      </c>
+      <c r="O34" s="3">
+        <f>N34*(1+$N$15)</f>
+        <v>60118.983603042347</v>
+      </c>
+      <c r="P34" s="3">
+        <f>O34*(1+$N$15)</f>
+        <v>60720.173439072772</v>
+      </c>
+      <c r="Q34" s="3">
+        <f>P34*(1+$N$15)</f>
+        <v>61327.375173463501</v>
+      </c>
+      <c r="R34" s="3">
+        <f>Q34*(1+$N$15)</f>
+        <v>61940.648925198133</v>
+      </c>
+      <c r="S34" s="3">
+        <f>R34*(1+$N$15)</f>
+        <v>62560.055414450115</v>
+      </c>
+      <c r="T34" s="3">
+        <f>S34*(1+$N$15)</f>
+        <v>63185.655968594619</v>
+      </c>
+      <c r="U34" s="3">
+        <f>T34*(1+$N$15)</f>
+        <v>63817.512528280567</v>
+      </c>
+      <c r="V34" s="3">
+        <f>U34*(1+$N$15)</f>
+        <v>64455.687653563371</v>
+      </c>
+      <c r="W34" s="3">
+        <f>V34*(1+$N$15)</f>
+        <v>65100.244530099008</v>
+      </c>
+      <c r="X34" s="3">
+        <f>W34*(1+$N$15)</f>
+        <v>65751.246975400005</v>
+      </c>
+      <c r="Y34" s="3">
+        <f>X34*(1+$N$15)</f>
+        <v>66408.759445154006</v>
+      </c>
+      <c r="Z34" s="3">
+        <f>Y34*(1+$N$15)</f>
+        <v>67072.847039605549</v>
+      </c>
+      <c r="AA34" s="3">
+        <f>Z34*(1+$N$15)</f>
+        <v>67743.57551000161</v>
+      </c>
+      <c r="AB34" s="3">
+        <f>AA34*(1+$N$15)</f>
+        <v>68421.011265101624</v>
+      </c>
+      <c r="AC34" s="3">
+        <f>AB34*(1+$N$15)</f>
+        <v>69105.221377752634</v>
+      </c>
+      <c r="AD34" s="3">
+        <f>AC34*(1+$N$15)</f>
+        <v>69796.27359153016</v>
+      </c>
+      <c r="AE34" s="3">
+        <f>AD34*(1+$N$15)</f>
+        <v>70494.236327445469</v>
+      </c>
+      <c r="AF34" s="3">
+        <f>AE34*(1+$N$15)</f>
+        <v>71199.178690719928</v>
+      </c>
+      <c r="AG34" s="3">
+        <f>AF34*(1+$N$15)</f>
+        <v>71911.170477627122</v>
+      </c>
+      <c r="AH34" s="3">
+        <f>AG34*(1+$N$15)</f>
+        <v>72630.282182403389</v>
+      </c>
+      <c r="AI34" s="3">
+        <f>AH34*(1+$N$15)</f>
+        <v>73356.585004227425</v>
+      </c>
+      <c r="AJ34" s="3">
+        <f>AI34*(1+$N$15)</f>
+        <v>74090.150854269697</v>
+      </c>
+      <c r="AK34" s="3">
+        <f>AJ34*(1+$N$15)</f>
+        <v>74831.052362812392</v>
+      </c>
+      <c r="AL34" s="3">
+        <f>AK34*(1+$N$15)</f>
+        <v>75579.362886440518</v>
+      </c>
+      <c r="AM34" s="3">
+        <f>AL34*(1+$N$15)</f>
+        <v>76335.156515304931</v>
+      </c>
+      <c r="AN34" s="3">
+        <f>AM34*(1+$N$15)</f>
+        <v>77098.508080457977</v>
+      </c>
+      <c r="AO34" s="3">
+        <f>AN34*(1+$N$15)</f>
+        <v>77869.493161262551</v>
+      </c>
+      <c r="AP34" s="3">
+        <f>AO34*(1+$N$15)</f>
+        <v>78648.188092875178</v>
+      </c>
+      <c r="AQ34" s="3">
+        <f>AP34*(1+$N$15)</f>
+        <v>79434.669973803931</v>
+      </c>
+      <c r="AR34" s="3">
+        <f>AQ34*(1+$N$15)</f>
+        <v>80229.016673541977</v>
+      </c>
+      <c r="AS34" s="3">
+        <f>AR34*(1+$N$15)</f>
+        <v>81031.306840277393</v>
+      </c>
+      <c r="AT34" s="3">
+        <f>AS34*(1+$N$15)</f>
+        <v>81841.619908680164</v>
+      </c>
+      <c r="AU34" s="3">
+        <f>AT34*(1+$N$15)</f>
+        <v>82660.036107766966</v>
+      </c>
+      <c r="AV34" s="3">
+        <f>AU34*(1+$N$15)</f>
+        <v>83486.636468844634</v>
+      </c>
+      <c r="AW34" s="3">
+        <f>AV34*(1+$N$15)</f>
+        <v>84321.502833533086</v>
+      </c>
+      <c r="AX34" s="3">
+        <f>AW34*(1+$N$15)</f>
+        <v>85164.717861868412</v>
+      </c>
+      <c r="AY34" s="3">
+        <f>AX34*(1+$N$15)</f>
+        <v>86016.3650404871</v>
+      </c>
+      <c r="AZ34" s="3">
+        <f>AY34*(1+$N$15)</f>
+        <v>86876.528690891966</v>
+      </c>
+      <c r="BA34" s="3">
+        <f>AZ34*(1+$N$15)</f>
+        <v>87745.293977800888</v>
+      </c>
+      <c r="BB34" s="3">
+        <f>BA34*(1+$N$15)</f>
+        <v>88622.746917578901</v>
+      </c>
+      <c r="BC34" s="3">
+        <f>BB34*(1+$N$15)</f>
+        <v>89508.974386754693</v>
+      </c>
+      <c r="BD34" s="3">
+        <f>BC34*(1+$N$15)</f>
+        <v>90404.064130622239</v>
+      </c>
+      <c r="BE34" s="3">
+        <f>BD34*(1+$N$15)</f>
+        <v>91308.104771928469</v>
+      </c>
+      <c r="BF34" s="3">
+        <f>BE34*(1+$N$15)</f>
+        <v>92221.185819647755</v>
+      </c>
+      <c r="BG34" s="3">
+        <f>BF34*(1+$N$15)</f>
+        <v>93143.39767784423</v>
+      </c>
+      <c r="BH34" s="3">
+        <f>BG34*(1+$N$15)</f>
+        <v>94074.831654622671</v>
+      </c>
+      <c r="BI34" s="3">
+        <f>BH34*(1+$N$15)</f>
+        <v>95015.579971168903</v>
+      </c>
+      <c r="BJ34" s="3">
+        <f>BI34*(1+$N$15)</f>
+        <v>95965.735770880594</v>
+      </c>
+      <c r="BK34" s="3">
+        <f>BJ34*(1+$N$15)</f>
+        <v>96925.393128589407</v>
+      </c>
+      <c r="BL34" s="3">
+        <f>BK34*(1+$N$15)</f>
+        <v>97894.647059875308</v>
+      </c>
+      <c r="BM34" s="3">
+        <f>BL34*(1+$N$15)</f>
+        <v>98873.593530474056</v>
+      </c>
+      <c r="BN34" s="3">
+        <f>BM34*(1+$N$15)</f>
+        <v>99862.329465778792</v>
+      </c>
+      <c r="BO34" s="3">
+        <f>BN34*(1+$N$15)</f>
+        <v>100860.95276043659</v>
+      </c>
+      <c r="BP34" s="3">
+        <f>BO34*(1+$N$15)</f>
+        <v>101869.56228804095</v>
+      </c>
+      <c r="BQ34" s="3">
+        <f>BP34*(1+$N$15)</f>
+        <v>102888.25791092135</v>
+      </c>
+      <c r="BR34" s="3">
+        <f>BQ34*(1+$N$15)</f>
+        <v>103917.14049003056</v>
+      </c>
+      <c r="BS34" s="3">
+        <f>BR34*(1+$N$15)</f>
+        <v>104956.31189493087</v>
+      </c>
+      <c r="BT34" s="3">
+        <f>BS34*(1+$N$15)</f>
+        <v>106005.87501388018</v>
+      </c>
+      <c r="BU34" s="3">
+        <f>BT34*(1+$N$15)</f>
+        <v>107065.93376401899</v>
+      </c>
+      <c r="BV34" s="3">
+        <f>BU34*(1+$N$15)</f>
+        <v>108136.59310165918</v>
+      </c>
+      <c r="BW34" s="3">
+        <f>BV34*(1+$N$15)</f>
+        <v>109217.95903267578</v>
+      </c>
+      <c r="BX34" s="3">
+        <f>BW34*(1+$N$15)</f>
+        <v>110310.13862300254</v>
+      </c>
+      <c r="BY34" s="3">
+        <f>BX34*(1+$N$15)</f>
+        <v>111413.24000923257</v>
+      </c>
+      <c r="BZ34" s="3">
+        <f>BY34*(1+$N$15)</f>
+        <v>112527.37240932489</v>
+      </c>
+      <c r="CA34" s="3">
+        <f>BZ34*(1+$N$15)</f>
+        <v>113652.64613341814</v>
+      </c>
+      <c r="CB34" s="3">
+        <f>CA34*(1+$N$15)</f>
+        <v>114789.17259475232</v>
+      </c>
+      <c r="CC34" s="3">
+        <f>CB34*(1+$N$15)</f>
+        <v>115937.06432069985</v>
+      </c>
+      <c r="CD34" s="3">
+        <f>CC34*(1+$N$15)</f>
+        <v>117096.43496390685</v>
+      </c>
+      <c r="CE34" s="3">
+        <f>CD34*(1+$N$15)</f>
+        <v>118267.39931354592</v>
+      </c>
+      <c r="CF34" s="3">
+        <f>CE34*(1+$N$15)</f>
+        <v>119450.07330668137</v>
+      </c>
+      <c r="CG34" s="3">
+        <f>CF34*(1+$N$15)</f>
+        <v>120644.57403974819</v>
+      </c>
+      <c r="CH34" s="3">
+        <f>CG34*(1+$N$15)</f>
+        <v>121851.01978014567</v>
+      </c>
+      <c r="CI34" s="3">
+        <f>CH34*(1+$N$15)</f>
+        <v>123069.52997794712</v>
+      </c>
+      <c r="CJ34" s="3">
+        <f>CI34*(1+$N$15)</f>
+        <v>124300.2252777266</v>
+      </c>
+      <c r="CK34" s="3">
+        <f>CJ34*(1+$N$15)</f>
+        <v>125543.22753050386</v>
+      </c>
+      <c r="CL34" s="3">
+        <f>CK34*(1+$N$15)</f>
+        <v>126798.6598058089</v>
+      </c>
+      <c r="CM34" s="3">
+        <f>CL34*(1+$N$15)</f>
+        <v>128066.64640386699</v>
+      </c>
+      <c r="CN34" s="3">
+        <f>CM34*(1+$N$15)</f>
+        <v>129347.31286790567</v>
+      </c>
+      <c r="CO34" s="3">
+        <f>CN34*(1+$N$15)</f>
+        <v>130640.78599658473</v>
+      </c>
+      <c r="CP34" s="3">
+        <f>CO34*(1+$N$15)</f>
+        <v>131947.19385655058</v>
+      </c>
+      <c r="CQ34" s="3">
+        <f>CP34*(1+$N$15)</f>
+        <v>133266.6657951161</v>
+      </c>
+      <c r="CR34" s="3">
+        <f>CQ34*(1+$N$15)</f>
+        <v>134599.33245306727</v>
+      </c>
+      <c r="CS34" s="3">
+        <f>CR34*(1+$N$15)</f>
+        <v>135945.32577759793</v>
+      </c>
+      <c r="CT34" s="3">
+        <f>CS34*(1+$N$15)</f>
+        <v>137304.77903537391</v>
+      </c>
+      <c r="CU34" s="3">
+        <f>CT34*(1+$N$15)</f>
+        <v>138677.82682572765</v>
+      </c>
+    </row>
+    <row r="36" spans="2:99" x14ac:dyDescent="0.2">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="2:99" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
@@ -2499,65 +2563,60 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="B38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="1">
+        <f>E40-E42</f>
+        <v>-96671</v>
+      </c>
+      <c r="F38" s="1">
+        <f>E38+F21</f>
+        <v>-78562.846401694493</v>
+      </c>
+      <c r="G38" s="1">
+        <f>F38+G21</f>
+        <v>-54642.338133999045</v>
+      </c>
+      <c r="H38" s="1">
+        <f>G38+H21</f>
+        <v>-23103.417022378071</v>
+      </c>
+      <c r="I38" s="1">
+        <f>H38+I21</f>
+        <v>18431.823947254135</v>
+      </c>
+      <c r="J38" s="1">
+        <f>I38+J21</f>
+        <v>73095.340595952308</v>
+      </c>
+      <c r="K38" s="1">
+        <f>J38+K21</f>
+        <v>145013.52101771359</v>
+      </c>
     </row>
     <row r="39" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="1">
-        <f>E41-E43</f>
-        <v>-96671</v>
-      </c>
-      <c r="F39" s="1">
-        <f>E39+F21</f>
-        <v>-79815.756758893753</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" ref="G39:J39" si="42">F39+G21</f>
-        <v>-59096.944066957403</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="42"/>
-        <v>-33692.181881479293</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="42"/>
-        <v>-2601.4734555086325</v>
-      </c>
-      <c r="J39" s="1">
-        <f t="shared" si="42"/>
-        <v>35391.35766522085</v>
-      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E40" s="1">
         <f>17406+417</f>
         <v>17823</v>
       </c>
     </row>
-    <row r="43" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="42" spans="2:99" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E42" s="1">
         <v>114494</v>
       </c>
     </row>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15878AA9-9657-44FC-92E3-6F4A1C0FF1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BCDB3E-EAB0-4F16-943B-E7DBC7F392CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{5D9A434D-E4E6-481F-B630-FF215E7C1E01}"/>
+    <workbookView xWindow="2130" yWindow="660" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{5D9A434D-E4E6-481F-B630-FF215E7C1E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -714,10 +714,10 @@
   <dimension ref="A1:DD42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1021,27 +1021,27 @@
         <v>15143</v>
       </c>
       <c r="F11" s="1">
-        <f>F7*(1-F27)</f>
+        <f t="shared" ref="F11:K11" si="9">F7*(1-F27)</f>
         <v>18429.612752368732</v>
       </c>
       <c r="G11" s="1">
-        <f>G7*(1-G27)</f>
+        <f t="shared" si="9"/>
         <v>22546.405216560601</v>
       </c>
       <c r="H11" s="1">
-        <f>H7*(1-H27)</f>
+        <f t="shared" si="9"/>
         <v>27700.703061077438</v>
       </c>
       <c r="I11" s="1">
-        <f>I7*(1-I27)</f>
+        <f t="shared" si="9"/>
         <v>34149.765496303531</v>
       </c>
       <c r="J11" s="1">
-        <f>J7*(1-J27)</f>
+        <f t="shared" si="9"/>
         <v>42212.079036712057</v>
       </c>
       <c r="K11" s="1">
-        <f>K7*(1-K27)</f>
+        <f t="shared" si="9"/>
         <v>52280.913564000934</v>
       </c>
     </row>
@@ -1054,35 +1054,35 @@
         <v>33563</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:E12" si="9">D7-D11</f>
+        <f t="shared" ref="D12:E12" si="10">D7-D11</f>
         <v>36390</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37818</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12" si="10">F7-F11</f>
+        <f t="shared" ref="F12" si="11">F7-F11</f>
         <v>47676.897247631277</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12" si="11">G7-G11</f>
+        <f t="shared" ref="G12" si="12">G7-G11</f>
         <v>60474.657083439408</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12" si="12">H7-H11</f>
+        <f t="shared" ref="H12" si="13">H7-H11</f>
         <v>77110.96280792258</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12" si="13">I7-I11</f>
+        <f t="shared" ref="I12" si="14">I7-I11</f>
         <v>98763.262678766478</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12:K12" si="14">J7-J11</f>
+        <f t="shared" ref="J12:K12" si="15">J7-J11</f>
         <v>126972.91495661007</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>163758.12844682083</v>
       </c>
     </row>
@@ -1149,11 +1149,11 @@
         <v>16583</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:E16" si="15">SUM(D13:D15)</f>
+        <f t="shared" ref="D16:E16" si="16">SUM(D13:D15)</f>
         <v>19035</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18737</v>
       </c>
       <c r="F16" s="1">
@@ -1161,23 +1161,23 @@
         <v>23387.732064538057</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:K16" si="16">F16*(1+G25)</f>
+        <f t="shared" ref="G16:K16" si="17">F16*(1+G25)</f>
         <v>29371.908466892615</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37081.176401266086</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>47023.119067168038</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>59855.728412470999</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>76432.158194837088</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -1196,35 +1196,35 @@
         <v>16980</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:J17" si="17">D12-D16</f>
+        <f t="shared" ref="D17:J17" si="18">D12-D16</f>
         <v>17355</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19081</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24289.165183093221</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31102.748616546793</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40029.786406656494</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>51740.14361159844</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>67117.186544139069</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K17" si="18">K12-K16</f>
+        <f t="shared" ref="K17" si="19">K12-K16</f>
         <v>87325.970251983745</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -1249,27 +1249,27 @@
         <v>-3514</v>
       </c>
       <c r="F18" s="1">
-        <f>E38*$N$14</f>
+        <f t="shared" ref="F18:K18" si="20">E38*$N$14</f>
         <v>-1933.42</v>
       </c>
       <c r="G18" s="1">
-        <f>F38*$N$14</f>
+        <f t="shared" si="20"/>
         <v>-1571.2569280338898</v>
       </c>
       <c r="H18" s="1">
-        <f>G38*$N$14</f>
+        <f t="shared" si="20"/>
         <v>-1092.8467626799809</v>
       </c>
       <c r="I18" s="1">
-        <f>H38*$N$14</f>
+        <f t="shared" si="20"/>
         <v>-462.06834044756141</v>
       </c>
       <c r="J18" s="1">
-        <f>I38*$N$14</f>
+        <f t="shared" si="20"/>
         <v>368.63647894508273</v>
       </c>
       <c r="K18" s="1">
-        <f>J38*$N$14</f>
+        <f t="shared" si="20"/>
         <v>1461.9068119190463</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -1289,35 +1289,35 @@
         <v>14225</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:J19" si="19">D17+D18</f>
+        <f t="shared" ref="D19:J19" si="21">D17+D18</f>
         <v>13850</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>15567</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>22355.745183093219</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>29531.491688512902</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>38936.939643976511</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>51278.075271150876</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>67485.823023084158</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" ref="K19" si="20">K17+K18</f>
+        <f t="shared" ref="K19" si="22">K17+K18</f>
         <v>88787.877063902793</v>
       </c>
       <c r="N19" s="4">
@@ -1343,23 +1343,23 @@
         <v>4247.5915847877113</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:K20" si="21">G19*0.19</f>
+        <f t="shared" ref="G20:K20" si="23">G19*0.19</f>
         <v>5610.9834208174516</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7398.018532355537</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9742.8343015186674</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>12822.306374385989</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>16869.696642141531</v>
       </c>
     </row>
@@ -1372,423 +1372,423 @@
         <v>13293</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:J21" si="22">D19-D20</f>
+        <f t="shared" ref="D21:J21" si="24">D19-D20</f>
         <v>13227</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>14293</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>18108.153598305507</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>23920.508267695452</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>31538.921111620974</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>41535.240969632207</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>54663.516648698169</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" ref="K21" si="23">K19-K20</f>
+        <f t="shared" ref="K21" si="25">K19-K20</f>
         <v>71918.180421761266</v>
       </c>
       <c r="L21" s="3">
-        <f>K21*(1+$N$15)</f>
+        <f t="shared" ref="L21:AQ21" si="26">K21*(1+$N$15)</f>
         <v>72637.362225978883</v>
       </c>
       <c r="M21" s="3">
-        <f>L21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>73363.735848238677</v>
       </c>
       <c r="N21" s="3">
-        <f>M21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>74097.373206721066</v>
       </c>
       <c r="O21" s="3">
-        <f>N21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>74838.34693878828</v>
       </c>
       <c r="P21" s="3">
-        <f>O21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>75586.730408176169</v>
       </c>
       <c r="Q21" s="3">
-        <f>P21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>76342.597712257935</v>
       </c>
       <c r="R21" s="3">
-        <f>Q21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>77106.023689380512</v>
       </c>
       <c r="S21" s="3">
-        <f>R21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>77877.083926274325</v>
       </c>
       <c r="T21" s="3">
-        <f>S21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>78655.854765537064</v>
       </c>
       <c r="U21" s="3">
-        <f>T21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>79442.413313192432</v>
       </c>
       <c r="V21" s="3">
-        <f>U21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>80236.837446324353</v>
       </c>
       <c r="W21" s="3">
-        <f>V21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>81039.205820787596</v>
       </c>
       <c r="X21" s="3">
-        <f>W21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>81849.597878995468</v>
       </c>
       <c r="Y21" s="3">
-        <f>X21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>82668.093857785425</v>
       </c>
       <c r="Z21" s="3">
-        <f>Y21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>83494.774796363286</v>
       </c>
       <c r="AA21" s="3">
-        <f>Z21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>84329.722544326927</v>
       </c>
       <c r="AB21" s="3">
-        <f>AA21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>85173.019769770195</v>
       </c>
       <c r="AC21" s="3">
-        <f>AB21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>86024.749967467898</v>
       </c>
       <c r="AD21" s="3">
-        <f>AC21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>86884.997467142573</v>
       </c>
       <c r="AE21" s="3">
-        <f>AD21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>87753.847441813996</v>
       </c>
       <c r="AF21" s="3">
-        <f>AE21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>88631.385916232131</v>
       </c>
       <c r="AG21" s="3">
-        <f>AF21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>89517.69977539446</v>
       </c>
       <c r="AH21" s="3">
-        <f>AG21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>90412.876773148411</v>
       </c>
       <c r="AI21" s="3">
-        <f>AH21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>91317.005540879894</v>
       </c>
       <c r="AJ21" s="3">
-        <f>AI21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>92230.175596288696</v>
       </c>
       <c r="AK21" s="3">
-        <f>AJ21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>93152.47735225159</v>
       </c>
       <c r="AL21" s="3">
-        <f>AK21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>94084.002125774103</v>
       </c>
       <c r="AM21" s="3">
-        <f>AL21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>95024.842147031843</v>
       </c>
       <c r="AN21" s="3">
-        <f>AM21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>95975.090568502157</v>
       </c>
       <c r="AO21" s="3">
-        <f>AN21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>96934.841474187182</v>
       </c>
       <c r="AP21" s="3">
-        <f>AO21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>97904.189888929061</v>
       </c>
       <c r="AQ21" s="3">
-        <f>AP21*(1+$N$15)</f>
+        <f t="shared" si="26"/>
         <v>98883.231787818353</v>
       </c>
       <c r="AR21" s="3">
-        <f>AQ21*(1+$N$15)</f>
+        <f t="shared" ref="AR21:BW21" si="27">AQ21*(1+$N$15)</f>
         <v>99872.06410569654</v>
       </c>
       <c r="AS21" s="3">
-        <f>AR21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>100870.7847467535</v>
       </c>
       <c r="AT21" s="3">
-        <f>AS21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>101879.49259422104</v>
       </c>
       <c r="AU21" s="3">
-        <f>AT21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>102898.28752016326</v>
       </c>
       <c r="AV21" s="3">
-        <f>AU21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>103927.27039536489</v>
       </c>
       <c r="AW21" s="3">
-        <f>AV21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>104966.54309931854</v>
       </c>
       <c r="AX21" s="3">
-        <f>AW21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>106016.20853031173</v>
       </c>
       <c r="AY21" s="3">
-        <f>AX21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>107076.37061561485</v>
       </c>
       <c r="AZ21" s="3">
-        <f>AY21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>108147.13432177101</v>
       </c>
       <c r="BA21" s="3">
-        <f>AZ21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>109228.60566498872</v>
       </c>
       <c r="BB21" s="3">
-        <f>BA21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>110320.8917216386</v>
       </c>
       <c r="BC21" s="3">
-        <f>BB21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>111424.10063885499</v>
       </c>
       <c r="BD21" s="3">
-        <f>BC21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>112538.34164524353</v>
       </c>
       <c r="BE21" s="3">
-        <f>BD21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>113663.72506169596</v>
       </c>
       <c r="BF21" s="3">
-        <f>BE21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>114800.36231231292</v>
       </c>
       <c r="BG21" s="3">
-        <f>BF21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>115948.36593543606</v>
       </c>
       <c r="BH21" s="3">
-        <f>BG21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>117107.84959479042</v>
       </c>
       <c r="BI21" s="3">
-        <f>BH21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>118278.92809073832</v>
       </c>
       <c r="BJ21" s="3">
-        <f>BI21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>119461.7173716457</v>
       </c>
       <c r="BK21" s="3">
-        <f>BJ21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>120656.33454536216</v>
       </c>
       <c r="BL21" s="3">
-        <f>BK21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>121862.89789081579</v>
       </c>
       <c r="BM21" s="3">
-        <f>BL21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>123081.52686972395</v>
       </c>
       <c r="BN21" s="3">
-        <f>BM21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>124312.3421384212</v>
       </c>
       <c r="BO21" s="3">
-        <f>BN21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>125555.46555980541</v>
       </c>
       <c r="BP21" s="3">
-        <f>BO21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>126811.02021540346</v>
       </c>
       <c r="BQ21" s="3">
-        <f>BP21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>128079.13041755751</v>
       </c>
       <c r="BR21" s="3">
-        <f>BQ21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>129359.92172173309</v>
       </c>
       <c r="BS21" s="3">
-        <f>BR21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>130653.52093895042</v>
       </c>
       <c r="BT21" s="3">
-        <f>BS21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>131960.05614833994</v>
       </c>
       <c r="BU21" s="3">
-        <f>BT21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>133279.65670982335</v>
       </c>
       <c r="BV21" s="3">
-        <f>BU21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>134612.45327692159</v>
       </c>
       <c r="BW21" s="3">
-        <f>BV21*(1+$N$15)</f>
+        <f t="shared" si="27"/>
         <v>135958.57780969082</v>
       </c>
       <c r="BX21" s="3">
-        <f>BW21*(1+$N$15)</f>
+        <f t="shared" ref="BX21:DD21" si="28">BW21*(1+$N$15)</f>
         <v>137318.16358778774</v>
       </c>
       <c r="BY21" s="3">
-        <f>BX21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>138691.34522366562</v>
       </c>
       <c r="BZ21" s="3">
-        <f>BY21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>140078.25867590227</v>
       </c>
       <c r="CA21" s="3">
-        <f>BZ21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>141479.04126266128</v>
       </c>
       <c r="CB21" s="3">
-        <f>CA21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>142893.83167528789</v>
       </c>
       <c r="CC21" s="3">
-        <f>CB21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>144322.76999204076</v>
       </c>
       <c r="CD21" s="3">
-        <f>CC21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>145765.99769196118</v>
       </c>
       <c r="CE21" s="3">
-        <f>CD21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>147223.6576688808</v>
       </c>
       <c r="CF21" s="3">
-        <f>CE21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>148695.89424556959</v>
       </c>
       <c r="CG21" s="3">
-        <f>CF21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>150182.8531880253</v>
       </c>
       <c r="CH21" s="3">
-        <f>CG21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>151684.68171990555</v>
       </c>
       <c r="CI21" s="3">
-        <f>CH21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>153201.5285371046</v>
       </c>
       <c r="CJ21" s="3">
-        <f>CI21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>154733.54382247565</v>
       </c>
       <c r="CK21" s="3">
-        <f>CJ21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>156280.8792607004</v>
       </c>
       <c r="CL21" s="3">
-        <f>CK21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>157843.68805330741</v>
       </c>
       <c r="CM21" s="3">
-        <f>CL21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>159422.1249338405</v>
       </c>
       <c r="CN21" s="3">
-        <f>CM21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>161016.34618317892</v>
       </c>
       <c r="CO21" s="3">
-        <f>CN21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>162626.50964501069</v>
       </c>
       <c r="CP21" s="3">
-        <f>CO21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>164252.7747414608</v>
       </c>
       <c r="CQ21" s="3">
-        <f>CP21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>165895.3024888754</v>
       </c>
       <c r="CR21" s="3">
-        <f>CQ21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>167554.25551376416</v>
       </c>
       <c r="CS21" s="3">
-        <f>CR21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>169229.79806890181</v>
       </c>
       <c r="CT21" s="3">
-        <f>CS21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>170922.09604959082</v>
       </c>
       <c r="CU21" s="3">
-        <f>CT21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>172631.31701008673</v>
       </c>
       <c r="CV21" s="3">
-        <f>CU21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>174357.63018018761</v>
       </c>
       <c r="CW21" s="3">
-        <f>CV21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>176101.2064819895</v>
       </c>
       <c r="CX21" s="3">
-        <f>CW21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>177862.2185468094</v>
       </c>
       <c r="CY21" s="3">
-        <f>CX21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>179640.84073227749</v>
       </c>
       <c r="CZ21" s="3">
-        <f>CY21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>181437.24913960026</v>
       </c>
       <c r="DA21" s="3">
-        <f>CZ21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>183251.62163099626</v>
       </c>
       <c r="DB21" s="3">
-        <f>DA21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>185084.13784730624</v>
       </c>
       <c r="DC21" s="3">
-        <f>DB21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>186934.9792257793</v>
       </c>
       <c r="DD21" s="3">
-        <f>DC21*(1+$N$15)</f>
+        <f t="shared" si="28"/>
         <v>188804.3290180371</v>
       </c>
     </row>
@@ -1833,35 +1833,35 @@
         <v>4.7713567839195976</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" ref="D23:J23" si="24">D21/D22</f>
+        <f t="shared" ref="D23:J23" si="29">D21/D22</f>
         <v>4.7819956616052064</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5.0630534891958909</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>6.4145071194847709</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>8.4734354472885052</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>11.172129334616002</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>14.713156560266457</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>19.363626159652203</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ref="K23" si="25">K21/K22</f>
+        <f t="shared" ref="K23" si="30">K21/K22</f>
         <v>25.475798945009306</v>
       </c>
     </row>
@@ -1878,27 +1878,27 @@
         <v>6.0195379749369504E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:K25" si="26">F7/E7-1</f>
+        <f t="shared" ref="F25:K25" si="31">F7/E7-1</f>
         <v>0.24821113649666748</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.25586817848953136</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.26247078711494654</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.26811292496002093</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.2729000032297475</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.27693973863514754</v>
       </c>
     </row>
@@ -1923,23 +1923,23 @@
         <v>0.72121334566945483</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" ref="G27:K27" si="27">F27*1.01</f>
+        <f t="shared" ref="G27:K27" si="32">F27*1.01</f>
         <v>0.72842547912614941</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.7357097339174109</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.74306683125658501</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.75049749956915091</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.75800247456484238</v>
       </c>
     </row>
@@ -1948,39 +1948,39 @@
         <v>28</v>
       </c>
       <c r="C28" s="4">
-        <f>C17/C7</f>
+        <f t="shared" ref="C28:K28" si="33">C17/C7</f>
         <v>0.40009425070688032</v>
       </c>
       <c r="D28" s="4">
-        <f>D17/D7</f>
+        <f t="shared" si="33"/>
         <v>0.34741962605597149</v>
       </c>
       <c r="E28" s="4">
-        <f>E17/E7</f>
+        <f t="shared" si="33"/>
         <v>0.36028398255319954</v>
       </c>
       <c r="F28" s="4">
-        <f>F17/F7</f>
+        <f t="shared" si="33"/>
         <v>0.36742470874794658</v>
       </c>
       <c r="G28" s="4">
-        <f>G17/G7</f>
+        <f t="shared" si="33"/>
         <v>0.37463684220464127</v>
       </c>
       <c r="H28" s="4">
-        <f>H17/H7</f>
+        <f t="shared" si="33"/>
         <v>0.38192109699590265</v>
       </c>
       <c r="I28" s="4">
-        <f>I17/I7</f>
+        <f t="shared" si="33"/>
         <v>0.38927819433507677</v>
       </c>
       <c r="J28" s="4">
-        <f>J17/J7</f>
+        <f t="shared" si="33"/>
         <v>0.3967088626476426</v>
       </c>
       <c r="K28" s="4">
-        <f>K17/K7</f>
+        <f t="shared" si="33"/>
         <v>0.40421383764333407</v>
       </c>
     </row>
@@ -1989,39 +1989,39 @@
         <v>38</v>
       </c>
       <c r="C29" s="4">
-        <f>C34/C7</f>
+        <f t="shared" ref="C29:K29" si="34">C34/C7</f>
         <v>0.11847313854853911</v>
       </c>
       <c r="D29" s="4">
-        <f>D34/D7</f>
+        <f t="shared" si="34"/>
         <v>0.16955599151219122</v>
       </c>
       <c r="E29" s="4">
-        <f>E34/E7</f>
+        <f t="shared" si="34"/>
         <v>0.22293763335284456</v>
       </c>
       <c r="F29" s="4">
-        <f>F34/F7</f>
+        <f t="shared" si="34"/>
         <v>0.2299892373633429</v>
       </c>
       <c r="G29" s="4">
-        <f>G34/G7</f>
+        <f t="shared" si="34"/>
         <v>0.23718187345405115</v>
       </c>
       <c r="H29" s="4">
-        <f>H34/H7</f>
+        <f t="shared" si="34"/>
         <v>0.24451836226657353</v>
       </c>
       <c r="I29" s="4">
-        <f>I34/I7</f>
+        <f t="shared" si="34"/>
         <v>0.25200158085534646</v>
       </c>
       <c r="J29" s="4">
-        <f>J34/J7</f>
+        <f t="shared" si="34"/>
         <v>0.25963446381589472</v>
       </c>
       <c r="K29" s="4">
-        <f>K34/K7</f>
+        <f t="shared" si="34"/>
         <v>0.26742000443565406</v>
       </c>
     </row>
@@ -2054,23 +2054,23 @@
         <v>0.35963180453541288</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ref="G31:K31" si="28">F31*1.02</f>
+        <f t="shared" ref="G31:K31" si="35">F31*1.02</f>
         <v>0.36682444062612113</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.37416092943864354</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.38164414802741642</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.38927703098796473</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.39706257160772401</v>
       </c>
     </row>
@@ -2088,27 +2088,27 @@
         <v>18673</v>
       </c>
       <c r="F32" s="1">
-        <f>F31*F7</f>
+        <f t="shared" ref="F32:K32" si="36">F31*F7</f>
         <v>23774.003482838321</v>
       </c>
       <c r="G32" s="1">
-        <f>G31*G7</f>
+        <f t="shared" si="36"/>
         <v>30454.154738383855</v>
       </c>
       <c r="H32" s="1">
-        <f>H31*H7</f>
+        <f t="shared" si="36"/>
         <v>39216.430317557599</v>
       </c>
       <c r="I32" s="1">
-        <f>I31*I7</f>
+        <f t="shared" si="36"/>
         <v>50725.479399618591</v>
       </c>
       <c r="J32" s="1">
-        <f>J31*J7</f>
+        <f t="shared" si="36"/>
         <v>65859.83214943709</v>
       </c>
       <c r="K32" s="1">
-        <f>K31*K7</f>
+        <f t="shared" si="36"/>
         <v>85781.017588486022</v>
       </c>
     </row>
@@ -2126,27 +2126,27 @@
         <v>6866</v>
       </c>
       <c r="F33" s="1">
-        <f>E33*(1+F25)</f>
+        <f t="shared" ref="F33:K33" si="37">E33*(1+F25)</f>
         <v>8570.2176631861184</v>
       </c>
       <c r="G33" s="1">
-        <f>F33*(1+G25)</f>
+        <f t="shared" si="37"/>
         <v>10763.063645924358</v>
       </c>
       <c r="H33" s="1">
-        <f>G33*(1+H25)</f>
+        <f t="shared" si="37"/>
         <v>13588.053432838391</v>
       </c>
       <c r="I33" s="1">
-        <f>H33*(1+I25)</f>
+        <f t="shared" si="37"/>
         <v>17231.186183229744</v>
       </c>
       <c r="J33" s="1">
-        <f>I33*(1+J25)</f>
+        <f t="shared" si="37"/>
         <v>21933.576948285521</v>
       </c>
       <c r="K33" s="1">
-        <f>J33*(1+K25)</f>
+        <f t="shared" si="37"/>
         <v>28007.856015677611</v>
       </c>
     </row>
@@ -2159,387 +2159,387 @@
         <v>5028</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" ref="D34:E34" si="29">D32-D33</f>
+        <f t="shared" ref="D34:E34" si="38">D32-D33</f>
         <v>8470</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>11807</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ref="F34" si="30">F32-F33</f>
+        <f t="shared" ref="F34" si="39">F32-F33</f>
         <v>15203.785819652203</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34" si="31">G32-G33</f>
+        <f t="shared" ref="G34" si="40">G32-G33</f>
         <v>19691.091092459497</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" ref="H34" si="32">H32-H33</f>
+        <f t="shared" ref="H34" si="41">H32-H33</f>
         <v>25628.376884719208</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34" si="33">I32-I33</f>
+        <f t="shared" ref="I34" si="42">I32-I33</f>
         <v>33494.293216388847</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34:K34" si="34">J32-J33</f>
+        <f t="shared" ref="J34:K34" si="43">J32-J33</f>
         <v>43926.255201151565</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>57773.161572808414</v>
       </c>
       <c r="L34" s="3">
-        <f>K34*(1+$N$15)</f>
+        <f t="shared" ref="L34:AQ34" si="44">K34*(1+$N$15)</f>
         <v>58350.893188536502</v>
       </c>
       <c r="M34" s="3">
-        <f>L34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>58934.402120421866</v>
       </c>
       <c r="N34" s="3">
-        <f>M34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>59523.746141626085</v>
       </c>
       <c r="O34" s="3">
-        <f>N34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>60118.983603042347</v>
       </c>
       <c r="P34" s="3">
-        <f>O34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>60720.173439072772</v>
       </c>
       <c r="Q34" s="3">
-        <f>P34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>61327.375173463501</v>
       </c>
       <c r="R34" s="3">
-        <f>Q34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>61940.648925198133</v>
       </c>
       <c r="S34" s="3">
-        <f>R34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>62560.055414450115</v>
       </c>
       <c r="T34" s="3">
-        <f>S34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>63185.655968594619</v>
       </c>
       <c r="U34" s="3">
-        <f>T34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>63817.512528280567</v>
       </c>
       <c r="V34" s="3">
-        <f>U34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>64455.687653563371</v>
       </c>
       <c r="W34" s="3">
-        <f>V34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>65100.244530099008</v>
       </c>
       <c r="X34" s="3">
-        <f>W34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>65751.246975400005</v>
       </c>
       <c r="Y34" s="3">
-        <f>X34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>66408.759445154006</v>
       </c>
       <c r="Z34" s="3">
-        <f>Y34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>67072.847039605549</v>
       </c>
       <c r="AA34" s="3">
-        <f>Z34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>67743.57551000161</v>
       </c>
       <c r="AB34" s="3">
-        <f>AA34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>68421.011265101624</v>
       </c>
       <c r="AC34" s="3">
-        <f>AB34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>69105.221377752634</v>
       </c>
       <c r="AD34" s="3">
-        <f>AC34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>69796.27359153016</v>
       </c>
       <c r="AE34" s="3">
-        <f>AD34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>70494.236327445469</v>
       </c>
       <c r="AF34" s="3">
-        <f>AE34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>71199.178690719928</v>
       </c>
       <c r="AG34" s="3">
-        <f>AF34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>71911.170477627122</v>
       </c>
       <c r="AH34" s="3">
-        <f>AG34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>72630.282182403389</v>
       </c>
       <c r="AI34" s="3">
-        <f>AH34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>73356.585004227425</v>
       </c>
       <c r="AJ34" s="3">
-        <f>AI34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>74090.150854269697</v>
       </c>
       <c r="AK34" s="3">
-        <f>AJ34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>74831.052362812392</v>
       </c>
       <c r="AL34" s="3">
-        <f>AK34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>75579.362886440518</v>
       </c>
       <c r="AM34" s="3">
-        <f>AL34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>76335.156515304931</v>
       </c>
       <c r="AN34" s="3">
-        <f>AM34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>77098.508080457977</v>
       </c>
       <c r="AO34" s="3">
-        <f>AN34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>77869.493161262551</v>
       </c>
       <c r="AP34" s="3">
-        <f>AO34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>78648.188092875178</v>
       </c>
       <c r="AQ34" s="3">
-        <f>AP34*(1+$N$15)</f>
+        <f t="shared" si="44"/>
         <v>79434.669973803931</v>
       </c>
       <c r="AR34" s="3">
-        <f>AQ34*(1+$N$15)</f>
+        <f t="shared" ref="AR34:BW34" si="45">AQ34*(1+$N$15)</f>
         <v>80229.016673541977</v>
       </c>
       <c r="AS34" s="3">
-        <f>AR34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>81031.306840277393</v>
       </c>
       <c r="AT34" s="3">
-        <f>AS34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>81841.619908680164</v>
       </c>
       <c r="AU34" s="3">
-        <f>AT34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>82660.036107766966</v>
       </c>
       <c r="AV34" s="3">
-        <f>AU34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>83486.636468844634</v>
       </c>
       <c r="AW34" s="3">
-        <f>AV34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>84321.502833533086</v>
       </c>
       <c r="AX34" s="3">
-        <f>AW34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>85164.717861868412</v>
       </c>
       <c r="AY34" s="3">
-        <f>AX34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>86016.3650404871</v>
       </c>
       <c r="AZ34" s="3">
-        <f>AY34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>86876.528690891966</v>
       </c>
       <c r="BA34" s="3">
-        <f>AZ34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>87745.293977800888</v>
       </c>
       <c r="BB34" s="3">
-        <f>BA34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>88622.746917578901</v>
       </c>
       <c r="BC34" s="3">
-        <f>BB34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>89508.974386754693</v>
       </c>
       <c r="BD34" s="3">
-        <f>BC34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>90404.064130622239</v>
       </c>
       <c r="BE34" s="3">
-        <f>BD34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>91308.104771928469</v>
       </c>
       <c r="BF34" s="3">
-        <f>BE34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>92221.185819647755</v>
       </c>
       <c r="BG34" s="3">
-        <f>BF34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>93143.39767784423</v>
       </c>
       <c r="BH34" s="3">
-        <f>BG34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>94074.831654622671</v>
       </c>
       <c r="BI34" s="3">
-        <f>BH34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>95015.579971168903</v>
       </c>
       <c r="BJ34" s="3">
-        <f>BI34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>95965.735770880594</v>
       </c>
       <c r="BK34" s="3">
-        <f>BJ34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>96925.393128589407</v>
       </c>
       <c r="BL34" s="3">
-        <f>BK34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>97894.647059875308</v>
       </c>
       <c r="BM34" s="3">
-        <f>BL34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>98873.593530474056</v>
       </c>
       <c r="BN34" s="3">
-        <f>BM34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>99862.329465778792</v>
       </c>
       <c r="BO34" s="3">
-        <f>BN34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>100860.95276043659</v>
       </c>
       <c r="BP34" s="3">
-        <f>BO34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>101869.56228804095</v>
       </c>
       <c r="BQ34" s="3">
-        <f>BP34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>102888.25791092135</v>
       </c>
       <c r="BR34" s="3">
-        <f>BQ34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>103917.14049003056</v>
       </c>
       <c r="BS34" s="3">
-        <f>BR34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>104956.31189493087</v>
       </c>
       <c r="BT34" s="3">
-        <f>BS34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>106005.87501388018</v>
       </c>
       <c r="BU34" s="3">
-        <f>BT34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>107065.93376401899</v>
       </c>
       <c r="BV34" s="3">
-        <f>BU34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>108136.59310165918</v>
       </c>
       <c r="BW34" s="3">
-        <f>BV34*(1+$N$15)</f>
+        <f t="shared" si="45"/>
         <v>109217.95903267578</v>
       </c>
       <c r="BX34" s="3">
-        <f>BW34*(1+$N$15)</f>
+        <f t="shared" ref="BX34:CU34" si="46">BW34*(1+$N$15)</f>
         <v>110310.13862300254</v>
       </c>
       <c r="BY34" s="3">
-        <f>BX34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>111413.24000923257</v>
       </c>
       <c r="BZ34" s="3">
-        <f>BY34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>112527.37240932489</v>
       </c>
       <c r="CA34" s="3">
-        <f>BZ34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>113652.64613341814</v>
       </c>
       <c r="CB34" s="3">
-        <f>CA34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>114789.17259475232</v>
       </c>
       <c r="CC34" s="3">
-        <f>CB34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>115937.06432069985</v>
       </c>
       <c r="CD34" s="3">
-        <f>CC34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>117096.43496390685</v>
       </c>
       <c r="CE34" s="3">
-        <f>CD34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>118267.39931354592</v>
       </c>
       <c r="CF34" s="3">
-        <f>CE34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>119450.07330668137</v>
       </c>
       <c r="CG34" s="3">
-        <f>CF34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>120644.57403974819</v>
       </c>
       <c r="CH34" s="3">
-        <f>CG34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>121851.01978014567</v>
       </c>
       <c r="CI34" s="3">
-        <f>CH34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>123069.52997794712</v>
       </c>
       <c r="CJ34" s="3">
-        <f>CI34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>124300.2252777266</v>
       </c>
       <c r="CK34" s="3">
-        <f>CJ34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>125543.22753050386</v>
       </c>
       <c r="CL34" s="3">
-        <f>CK34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>126798.6598058089</v>
       </c>
       <c r="CM34" s="3">
-        <f>CL34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>128066.64640386699</v>
       </c>
       <c r="CN34" s="3">
-        <f>CM34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>129347.31286790567</v>
       </c>
       <c r="CO34" s="3">
-        <f>CN34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>130640.78599658473</v>
       </c>
       <c r="CP34" s="3">
-        <f>CO34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>131947.19385655058</v>
       </c>
       <c r="CQ34" s="3">
-        <f>CP34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>133266.6657951161</v>
       </c>
       <c r="CR34" s="3">
-        <f>CQ34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>134599.33245306727</v>
       </c>
       <c r="CS34" s="3">
-        <f>CR34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>135945.32577759793</v>
       </c>
       <c r="CT34" s="3">
-        <f>CS34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>137304.77903537391</v>
       </c>
       <c r="CU34" s="3">
-        <f>CT34*(1+$N$15)</f>
+        <f t="shared" si="46"/>
         <v>138677.82682572765</v>
       </c>
     </row>
@@ -2574,27 +2574,27 @@
         <v>-96671</v>
       </c>
       <c r="F38" s="1">
-        <f>E38+F21</f>
+        <f t="shared" ref="F38:K38" si="47">E38+F21</f>
         <v>-78562.846401694493</v>
       </c>
       <c r="G38" s="1">
-        <f>F38+G21</f>
+        <f t="shared" si="47"/>
         <v>-54642.338133999045</v>
       </c>
       <c r="H38" s="1">
-        <f>G38+H21</f>
+        <f t="shared" si="47"/>
         <v>-23103.417022378071</v>
       </c>
       <c r="I38" s="1">
-        <f>H38+I21</f>
+        <f t="shared" si="47"/>
         <v>18431.823947254135</v>
       </c>
       <c r="J38" s="1">
-        <f>I38+J21</f>
+        <f t="shared" si="47"/>
         <v>73095.340595952308</v>
       </c>
       <c r="K38" s="1">
-        <f>J38+K21</f>
+        <f t="shared" si="47"/>
         <v>145013.52101771359</v>
       </c>
     </row>
